--- a/deuChatbot/research_result/version_2(2500_100).xlsx
+++ b/deuChatbot/research_result/version_2(2500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20915,6 +20915,6881 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 배점, 준비물, 주제, 화지 크기 및 시험 시간을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7978618414492977</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행됩니다. 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 준비해야 합니다.
+기본적으로 각 종목별 배점은 700점(70%)입니다. 
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+이러한 실기시험은 창의성과 표현 능력을 평가하는 중요한 부분으로, 준비 과정에서 다양한 주제에 대한 아이디어를 발전시키는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%와 30%이다"라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 약간 저하되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 잘 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 논리적 흐름이 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본 텍스트에 없기 때문에 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율의 추가로 인해 의미의 적절성이 약간 저하되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7864567309142086</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%와 30%이다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨한다. 예시로 잠자리와 저울을 연결한 주제를 들 수 있다. 화지크기는 켄트지3절이며, 시간은 5시간이다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨한다. 예시로 콜라병과 계절을 연결한 주제를 들 수 있다. 화지크기는 켄트지2절이며, 시간은 5시간이다.
+이러한 정보는 디자인조형학과의 실기고사에서 시각디자인, 산업디자인, 공예디자인 모집단위에 해당한다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8971940667225657</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+1. 배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록으로 남겨두면, 경기지도학과의 모집에서 인정받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 예시도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8075186633237389</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+위의 주제들은 당일 추첨을 통해 각 1개씩 선정되어 연결된 주제를 만들게 됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분은 사실과 다릅니다. 학생부 교과 전형에서는 서류와 면접이 반영될 수 있기 때문에 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서는 일관성을 유지하고 있지만, 추가된 정보인 "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분은 원본 텍스트와 모순됩니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 학생부 교과 전형의 출결 점수 반영 여부에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본 텍스트와 모순되므로 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 정확하지만, 서류와 면접이 반영되지 않는다는 부분에서 정확성이 떨어집니다. 따라서 점수는 중간 이상으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 부정확한 정보로 인해 완벽하지는 않습니다. 따라서 다차원 품질 점수는 4로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 부정확하여 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다. 따라서 이해 가능성 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7216865924643449</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결, 서류, 면접, 실기 등의 요소가 반영되지 않고, 유일하게 수능이 100%의 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주요 내용과 직접적으로 관련이 있으며, 핵심 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락에서 사용되고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.7458236256577492</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과는 다군 일반학생전형으로 28명을 모집하는 것으로 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원을 110명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 22명과 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순되는 정보를 제공하고 있습니다. 모집 인원에 대한 정보가 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "간호 학생"이라는 표현이 조금 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 양호합니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과는 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7542522203017592</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 등급과 점수의 일치가 확인됩니다. 그러나 "이러한 점수는 해당 등급에 맞게 변환됩니다."라는 문장은 원본 텍스트에 포함되어 있지 않은 정보로, 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 대부분 일관되게 전달하고 있지만, 추가된 문장으로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트에는 없는 내용이 포함되어 있어 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다. 모든 주요 포인트가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "등급 1 :"과 같은 표현에서 공백이 불필요하게 들어가 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수 목록이 명확하게 제시되어 있습니다. 그러나 추가된 문장이 응답의 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 점수와 등급을 정확하게 반영하고 있습니다. 그러나 추가된 문장이 정확성에 약간의 영향을 미칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 추가된 문장으로 인해 약간의 저하가 발생합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 문장이 의미의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 문장이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9259534252143816</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이러한 점수는 해당 등급에 맞게 변환됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 잘못 주장하고 있습니다. 원문에서는 예술고 학생이 해당 전형에 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있는데, 생성된 응답은 지원 가능성을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예술고 학생의 지원 자격에 대한 정보를 제공하고 있지만, 원문에서 명시된 핵심 내용인 지원 불가에 대한 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 원문과의 일관성이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 예술고 학생이 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절한 부분이 많습니다. 원문과의 의미적 일치가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7134052484661961</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 고교유형별 지원자격에서 특수목적고의 예술고로 분류되므로, 나군 학생부종합(조기취업형계약학과전형)에서는 지원 가능합니다. 그러나 농어촌학생전형인 경우에는 지원 자격이 다를 수 있으므로, 해당 전형의 지원 자격 조건을 확인해야 합니다.
+농어촌학생전형의 지원 자격은 일반고나 자율고 등에서 주로 요구되며, 특수목적고는 제한적으로 지원할 수 있습니다. 예술고 학생이 농어촌학생전형인 경우에도 지원 가능성을 확인하기 위해 해당 전형의 공식 홈페이지나 입학처에 문의하는 것이 좋습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 농어촌학생전형의 지원 자격 조건을 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급의 기록이 218~221 cm로 명확히 제시되어 있습니다. 따라서 이 부분에서 큰 부정확성이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, "남은"이라는 표현이 문맥상 어색하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분에서 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 비교했을 때, 부정확한 내용이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 점수를 받지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, "남은"이라는 표현이 문맥에 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 표현이 어색하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있지만, "학생부교과, 실기/실적 위주전형에서"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트는 단순히 비율만 언급하고 있어, 전형에 대한 정보는 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 전형에 대한 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 정보의 추가로 인해 약간의 혼란이 발생할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 일관성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6483140503991253</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 학생부교과, 실기/실적 위주전형에서 12%입니다.
+이 정보는 "2024학년도 주요 변경사항" 섹션에서 찾아볼 수 있으며, 해당 섹션에서는 다양한 전형의 출결 반영 비율을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 물리치료학과의 모집 인원이 4명이라고 명시되어 있지만, 생성된 응답에서는 해당 정보가 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 모두 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 원본 텍스트의 정보를 왜곡하고 있으며, 이는 문맥에 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7200926239804263</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대 2024학년도 가군에서 물리치료학과에 대한 모집인원이 없습니다. 추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.372500036366621</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환으로 나뉩니다. 각 종목별로 배점 비율이 70%와 30%입니다.
+주의할 점은 이 일정은 디자인조형학과 전체에 적용되며, 특정 모집단위(시각디자인, 산업디자인, 공예디자인)별로 실기종목이 다르게 설정될 수 있다는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 언급하지 않고, 관련 데이터가 없다고만 언급하고 있습니다. 그러나 수능 최저 학력 기준이 없다는 정보는 정확하게 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 전달하지 않으므로, 일관성이 떨어집니다. 응답이 다른 전공에 대한 통계만 포함되어 있다고 언급하지만, 이는 원문과의 일관성을 해치는 요소입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응답은 동의대학교 2024학년도 응용화학과에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 웹사이트 링크를 통해 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 정보가 잘 정리되어 있습니다. 그러나 수능 최저 학력 기준에 대한 명확한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 전달하지 않지만, 다른 전공에 대한 통계가 포함되어 있다는 점은 정확합니다. 그러나 중요한 사실이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 전달하고 있으나, 수능 최저 학력 기준에 대한 명확한 언급이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 수능 최저 학력 기준에 대한 정보가 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4128843464915765</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과에 대한 관련 데이터가 없습니다. 다른 전공들에 대한 통계만이 포함되어 있습니다. 
+더 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 동의대학교 2024학년도 응용화학과의 수능 최저기준을 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 심리학과, 스마트항만물류학과, 라이프융합학부를 언급하고 있지만, 창업투자경영학과와 경기지도학과는 누락되었습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학과를 포함하고 있지만, 전체 목록과 일치하지 않기 때문에 일관성이 떨어집니다. 누락된 학과로 인해 일관성이 부족하다고 판단하여 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공합니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 전체 목록이 누락되어 약간의 일관성이 떨어지므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학과에 대한 정확한 정보를 제공하지만, 전체 목록이 누락되어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 일부 학과가 누락되어 있어 다차원적으로 완벽하지는 않습니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 문맥에 적합합니다. 그러나 누락된 정보로 인해 약간의 의미적 불완전함이 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있으므로 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7982887095799193</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 라이프융합학부</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 서류 70%와 면접 30%라고 명시되어 있지만, 생성된 응답에서는 출결 70%와 서류 30%로 잘못 기재되어 있습니다. 또한, 학생부 교과, 실기, 수능의 비율이 0%로 잘못 언급되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문에서 면접이 포함된 반영비율이 명시되어 있는데, 생성된 응답에서는 면접이 0%로 잘못 기재되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 요구하는 정보는 명확하게 제시되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 전혀 맞지 않습니다. 전형요소 반영비율에 대한 정보가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 모두 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에서 벗어난 부분이 많습니다. 비율이 잘못 기재되어 있어 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8252324388724552</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+- 면접: 0%
+- 실기: 0%
+- 수능: 0%
+이와 같이, 이 전형에서는 주로 출결(70%)과 서류(30%)에 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 한의예과에 대한 정보는 원문에 포함되어 있지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원문에서 언급된 모집단위와 관련이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보와 다른 학과에 대한 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원문과의 관련성이 부족하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7121418459066106</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>1학년에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이 학과에서는 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+그 외에 다른 학과에서는 수능 가산점을 적용하지 않습니다. 만약 더 자세한 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되었고, 추가된 정보가 원문과 일치하지 않기 때문에 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 반영 영역과 비율에 대한 세부사항을 제공하면서도 원문의 핵심 내용을 일관되게 전달하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문의 핵심 내용인 '100% 반영'이라는 점을 간과하고 있습니다. 그럼에도 불구하고 수능 성적 반영 방법에 대한 추가 정보는 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 원문의 핵심 메시지와의 연결이 약해 coherence 점수가 낮습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 '100% 반영'이라는 사실을 왜곡하고 있으며, 반영 영역과 비율에 대한 정보가 원문과 일치하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않으며, 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 의미를 왜곡하고 있어 의미적으로 적절하지 않습니다. 그러나 여전히 관련된 주제를 다루고 있기 때문에 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원문과의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.9129555938337234</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시되어 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에서 제외된 학과와 생성된 응답에서 언급된 학과가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용인 제외된 학과에 대한 정보가 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 내용이 서로 연결되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 학과 이름과 전형 요소에 대한 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어지는 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어나 있으며, 잘못된 정보를 제공하고 있습니다. 그러나 일부 내용은 여전히 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5853313350127278</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이는 가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있습니다. 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과가 모집단위로 포함되며, 이들 학과의 경우 수능은 30%를 차지하고 실기는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8228188759047153</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다.
+전형요소 반영비율에서 다군 수능(일반학생전형) 전 모집단위에 대한 정보가 제공되며, 여기서 수능최저기준 항목은 "수능최저기준 없음"으로 표시되어 있습니다. 이는 해당 전형에서 수능 최저 기준이 적용되지 않는 것을 의미합니다.
+따라서 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있으나, "디자인공학부"의 경우 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본 텍스트에 포함되어 있지 않다. 따라서 약간의 부정확성이 존재한다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되거나 추가 정보가 포함되어 있어 일관성이 떨어진다. 예를 들어, "디자인공학부"가 "디자인조형학과"로 잘못 기재되었다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리 정보에 대한 질문에 직접적으로 답변하고 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있다. 예를 들어, "보육·가정상담학부"와 같은 표현이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 나열하고 있다. 그러나 일부 학과의 명칭이 다르게 표현되어 있어 완전한 일관성은 부족하다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보를 정확하게 전달하고 있으나, 몇 가지 학과 명칭의 오류가 있어 완전한 정확성은 결여되어 있다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미를 잘 전달하고 있으나, 일부 표현에서 약간의 차이가 있어 완전한 적합성은 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 "인터넷"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "인터넷"이라는 표현이 추가되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용인 원서접수 마감일에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만 "18시까지"라는 표현이 중복되어 있어 약간의 매끄러움이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 내용을 잘 전달하고 있습니다. 그러나 "인터넷"이라는 추가 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, "인터넷"이라는 정보는 원본에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일부 부정확성과 일관성 저하로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "인터넷"이라는 추가 정보가 원본의 맥락과 완전히 일치하지 않으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9224503714413117</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024년 1월 6일(토)까지 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 '학생부종합(평생학습자전형)'이라는 전형을 언급하고 있지만, 원본 텍스트에서는 '학생부종합(성인학습자전형)'으로 명시되어 있습니다. 또한, 평가 영역의 변경에 대한 정보가 원본 텍스트에 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 전형의 이름과 평가 영역이 다릅니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다. 전형의 이름이 잘못되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가가 다소 낮아질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 전형의 이름과 평가 기준이 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 전형 요소 변화에 대한 설명이 포함되어 있지만, 잘못된 전형 이름으로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7379027326539811</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(평생학습자전형)입니다. 이 전형의 서류평가 영역별 세부 평가 기준에서 평가영역이 공동체역량, 학업역량, 전공적합성으로 변경되었습니다.
+2023년도에는 다음과 같은 평가 영역이 있었습니다:
+- 인성
+- 학업역량 
+- 전공적합성
+하지만 2024년도에는 위와 같이 평가영역이 바뀌어 공동체역량, 학업역량, 전공적합성이 되었습니다.
+따라서 동의대학교에서 2024학년도에 전형 요소 변화가 있는 전형은 학생부종합(평생학습자전형)입니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 실기 비중에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "而出示答案的韩文版本：" 부분이 불필요하게 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 중간에 불필요한 문구가 포함되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이나, 유창성과 일관성에서 약간의 문제점이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 대체로 이해하기 쉽지만, 중간에 삽입된 불필요한 문구로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7916620789851425</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 실기가 차지하는 비율로, 수능이 30%,而出示答案的韩文版本：
+2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 실기가 차지하는 비율로, 수능이 30%, 실기가 70%를 각각 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 추가적인 설명도 포함되어 있지만, '미래융합대학'이라는 명칭은 원문에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원문과 일치하는 정보를 제공하지만, '미래융합대학'이라는 새로운 명칭이 추가되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 4
+   - 세부 전공에 대한 정보는 정확하지만, '미래융합대학'이라는 명칭이 원문에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 보이지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 원문과 잘 맞지만, 추가된 정보가 원문과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8493184877713162</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과 중 하나인 미래융합대학의 라이프융합학부는 세부 전공으로 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학을 포함하고 있습니다. 이 세부 전공들은 학생들이 다양한 삶의 질 향상을 위한 지식과 기술을 배울 수 있도록 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'와 '레저스포츠학과'만 언급되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. '태권도학과'라는 정보는 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 잘못된 정보로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 응답이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6320838652027584</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들 학과의 실기고사는 2024년 1월 16일(화)에 진행됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **일정**: 2024. 01. 16.(화)
+- **비고**: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.
+따라서, 레저스포츠학과와 태권도학과를 지원하는 학생들은 이 날짜에 실기고사를 준비하고 참여해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과 목록을 제시하고 있지만, 생성된 응답은 전혀 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 시도하지만, 제공된 정보가 원본 텍스트와 관련이 적고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5250201985296172</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 제공되는 전공 목록과 신설된 학부라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 내용이 일치합니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9461995915201955</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다.
+1. 스타트업 창업 투자학
+2. 뷰티 비즈니스학 
+3. 라이프 생활 문화학
+위와 같이 3가지의 전공을 제공하고 있으며, 이는 신설된 학부로 알려져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 중국어 부분은 한국어 원문과의 일관성이 떨어지며, 일부 정보가 중복되어 제공되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 한국어와 중국어가 혼합되어 있어 일관성이 떨어집니다. 한국어 부분은 원문과 일치하지만, 중국어 부분은 원문과의 연결이 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 정보를 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 한국어 부분은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어 부분은 한국어와의 연결이 부족하여 약간의 유창성 문제가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 한국어 부분은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 중국어 부분이 포함되어 있어 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 중국어 부분의 정보가 원문과의 연결이 부족하여 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 중국어 부분의 일관성과 연결성 부족으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 한국어 부분은 의미적으로 적절하지만, 중국어 부분이 원문과의 연결이 부족하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 한국어 부분은 명확하고 이해하기 쉬우나, 중국어 부분이 포함되어 있어 전체적인 이해도를 떨어뜨릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6167680778993694</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，根据提供的信息，你可以尝试以一般学生身份申请동의大学的学生部综合招生。但是具体能否申请还需要确认东义大学的各个专业的具体招生要求和限制条件。
+如果想进一步确认，请访问东义大学官网 https://ipsi. deu. ac. kr/main. do ，查看最新的招生简章或直接联系学校的招生办公室进行咨询。
+특수목적 고등학교 학생으로서 동의대학교 일반학생전형으로 지원이 가능한 것으로 보입니다. 하지만 각 전공별 정확한 지원 가능 여부는 동의대학교의 최신 입학규정을 확인하거나, 대학 입학처에 직접 문의하여 확인하는 것이 좋습니다.
+따라서, 동의대학교 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 가장 최신의 입학 정보를 확인하시거나, 입학처에 연락하여 자세한 내용을 확인하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 디자인조형학과가 가장 많이 모집하는 학과로 잘못 언급되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 내용을 반영하지 않고 다른 학과의 모집 인원에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 답변이 아닌 다른 학과의 모집 인원에 대한 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 모집 인원을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 정보가 분산되어 있어 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련된 정보가 부족합니다. 그러나 일부 정보는 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6458496396502156</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 보면, 각 학과별 정원 내 모집 인원을 확인할 수 있습니다.
+1. 음악학과 - 교직 (클래식, 실용음악, 뉴미디어작곡) : 21명
+2. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) : 75명
+3. 체육학과 - 교직 : 55명
+4. 레저스포츠학과 : 45명
+5. 태권도학과 : 35명
+6. 경기지도학과 (신설) : 30명
+7. 패션디자인학과 - 교직 : 40명
+이 중에서 가장 많은 인원을 모집하는 학과는 **디자인조형학과**로, 정원 내 모집 인원이 75명입니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **디자인조형학과**입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대하는 내용을 담고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 특수목적고 출신자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 추가 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변이 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6192262654732509</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교의 학생부교과 농어촌학생전형으로 지원 가능합니다. 전형 자격에 따라 일반고등학교나 자율고등학교 등 다양한 고등학교 출신 학생들이 지원할 수 있으며, 특수목적고등학교 출신 학생들도 포함됩니다.
+만약 추가로 궁금한 사항이 있으시다면 https://ipsi. deu. ac. kr/main. do를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 없기 때문에 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6242044600913599</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, 317.87입니다.
+이 데이터는 다음과 같은 정보를 기반으로 합니다:
+- 단과대학: ICT융합공과대학
+- 모집단위: 소프트웨어공학부
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 충원 합격 (후보순위): 63명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+이와 같은 정보를 바탕으로, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 317.87점입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원본 텍스트의 사실과 상반되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 구체적인 평균 성적을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 원본 텍스트의 내용과 상반되는 정보를 제공하기 때문에 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 구체적인 수치를 제시하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리는데, 생성된 응답은 구체적인 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5055434586442002</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 최초 합격자 등록에 대한 정보가 추가되어 있으며, 이는 원본 텍스트에 명시되어 있지 않은 내용입니다. 따라서 일부 사실이 왜곡되었거나 추가된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 포함하고 있지만, 추가된 내용(최초 합격자 등록)으로 인해 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 정보가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보가 논리적으로 연결되어 있습니다. 그러나 추가된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보로 인해 약간의 의미 왜곡이 발생할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8253757609431893</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록:
+   - 일시: 2024. 02. 02.(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+2. 최초 합격자 등록:
+   - 일시: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+3. 충원 합격자 발표 및 등록:
+   - 1차: 2024. 02. 14.(수) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+   - 2차: 2024. 02. 15.(목) 09:00
+     - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+4. 충원 합격자 발표 및 등록 (3차 이후):
+   - 일시: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행(등록금 고지서에 기재)
+이 일정을 참고하여 합격자 발표 및 등록을 진행하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접고사 일정에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충하므로 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 적절하지 않으며, 원본 텍스트의 핵심 정보를 다루지 않고 있습니다. 그러나 면접 관련 정보가 포함되어 있어 일부 관련성은 있지만, 전반적으로 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않으므로 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 기록하고 있습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않지만, 면접 관련 정보가 포함되어 있어 일부 의미적 적절성은 존재합니다. 그러나 전반적으로는 낮은 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있으며, 이해하기 어렵지 않습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3890557635872978</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 면접고사의 일정 날짜에 대한 구체적인 정보가 없습니다. 면접고사는 일반적으로 입학사정관이 수험생을 대상으로 개별적으로 진행되며, 정확한 날짜와 시간은 나중에 안내받으실 것입니다.
+면접평가 방법에서 면접시간은 1인당 10분 이내라고 되어 있지만, 실제 일정은 합격자 발표 이후에 이루어질 것으로 예상됩니다. 따라서 구체적인 일정 날짜와 시간을 알고 싶다면, 입학처 또는 관련 홈페이지를 통해 최신 정보를 확인하시거나, 대학 입학사정관에게 직접 문의해보시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 를 방문하여 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 부정확하게 해석하고 있습니다. 응답에서는 최저학력 기준이 적용될 것으로 추정된다고 언급하고 있지만, 이는 원문과 상충하는 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 최저학력 기준이 없다고 명확히 언급하고 있으나, 응답에서는 이를 추정하는 내용이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 한의예과의 최저학력 기준에 대한 질문에 관련된 정보를 제공하고 있으나, 원문과의 불일치로 인해 일부 정보가 불필요하게 추가되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 내용이 다소 비약적이며, 원문과의 연결이 약해 일관된 흐름이 부족합니다. 최저학력 기준이 없다는 점을 명확히 하지 않고 추정으로 넘어가는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 원문과 관련이 있지만, 최저학력 기준이 없다는 점을 명확히 하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5284750179941415</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력기준에 대한 내용이 직접적으로 언급되어 있지 않습니다. 하지만, 전형요소 반영비율에서 "나군 수능(일반학생전형) 한의예과(수학(미적분/기하),수학(확률과 통계))"라는 항목을 확인할 수 있습니다. 이 항목에서는 수능 최저기준이 언급되어 있지 않으므로, 일반적으로 한의예과의 경우 수능 최저학력 기준이 적용될 것으로 추정됩니다.
+더 정확한 정보를 얻기 위해서는 공식 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시거나, 직접 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 언급하지 않고, 정시 전형의 수능 최저학력 기준에 대한 정보가 없다고만 언급하고 있습니다. 이는 사실과 일치하지만, 명확한 진술이 부족하여 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 정시 전형의 수능 최저학력 기준이 설정될 수 있다는 언급은 원문과 모순될 수 있습니다. 따라서 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으며, 추가적인 정보 출처를 안내하고 있습니다. 그러나 원문에 대한 직접적인 언급이 부족하여 점수를 약간 낮추었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원문과의 연결이 약간 부족하여 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 명확히 전달하지 않기 때문에 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적이며, 특히 사실성과 일관성에서 부족함이 있어 점수를 3으로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원문과의 직접적인 연결이 부족하여 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 연결이 약간 부족하여 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5404303584655626</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 정시 전형의 수능 최저학력 기준에 대한 내용이 없습니다. 정시 전형의 경우 각 모집단위별로 수능 최저학력 기준을 설정할 수 있으나, 해당 정보가 포함되어 있지 않습니다.
+더 자세한 정보를 얻기 위해서는 입학 안내 홈페이지 (http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하거나 학교 입학관리팀에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 충원합격자 발표 일정에 대한 정보가 올바르게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 일정이 충실히 포함되어 있습니다. 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8076056872398387</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 2024년 2월 15일(목) 09:00입니다.
+이 외에도 충원합격자 관련 일정들이 있습니다:
+- 1차 충원합격자 발표는 2024년 2월 14일(수) 09:00
+- 2차 충원합격자 발표는 2024년 2월 15일(목) 09:00
+- 3차 이후 충원합격자는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 개별 전화 통보를 통해 발표됩니다.
+모든 충원합격자 발표는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 안내만 포함되어 있습니다. 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본의 일정과는 상반된 정보가 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 일정과는 관련이 적습니다. 일반적인 안내는 포함되어 있지만, 원본의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 일관되게 연결되어 있지 않으며, 원본 텍스트와의 연결이 부족합니다. 정보의 흐름이 매끄럽지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 있으며, 정확한 날짜와 시간 정보가 누락되어 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 연관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 정보를 제공하려고 하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 의미적으로 적절한 부분도 있지만, 전반적으로는 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4288931989490942</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>ippsi 홈페이지에서 추가합격자 발표 일정을 확인하실 수 있습니다. 정확한 날짜는 아직 공지되지 않았지만, 보통 추가합격자는 본 합격자 발표 후 한 주 정도 지연됩니다.ippsi.deu.ac.kr/main.do를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보가 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 명확한 설명이 포함되어 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성이 부족함을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보의 정확성이 떨어져서 관련성이 낮아졌습니다. 원본의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 낮은 점수를 받고 있으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 부적절한 해석을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4042332407361571</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 추가 모집에 대한 내용이 명시되어 있지 않습니다. 추가 모집에 대한 자세한 정보를 얻으려면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 일부 정보를 포함하고 있지만, 지원자격에 대한 설명이 원본 텍스트와 일치하지 않으며, 산업체 적용 범위에 대한 추가 정보가 포함되어 있어 사실성이 떨어진다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 요소와 일치하지만, 지원자격에 대한 설명이 다르기 때문에 일관성이 부족하다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 주요 내용을 다루고 있지만, 일부 세부사항이 원본 텍스트와 다르기 때문에 완전한 관련성은 없다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 문제가 있다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 지원자격에 대한 설명이 원본 텍스트와 다르기 때문에 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이며, 사실성과 일관성에서 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 세부사항에서 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7195930652001286</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 전형을 통해 지원받을 수 있는 학생부종합전형의 하나입니다. 주요 내용은 다음과 같습니다:
+1. **모집단위 및 모집인원**: 미래융합대학 라이프융합학부가 대상이며, 신설된 학과(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)를 중심으로 모집합니다. 평생학습자전형의 경우 모집인원은 11명입니다.
+2. **지원자격**: 산업체 적용범위와 재직기간을 기준으로 합니다. 산업체 적용 범위는 국가·지방자치단체 및 공공단체, 근로기준법 제11조에 따른 상시근로자 5인 이상 사업체, 4대 보험 중 하나 이상 가입 사업체 등이 포함됩니다.
+3. **전형요소 반영비율**: 서류 평가가 70%, 면접 평가가 30%입니다.
+4. **제출서류**:
+   - 고교 졸업(예정)자인 경우: 고교 학교생활기록부
+   - 검정고시 출신자인 경우: 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+   - 외국고교 졸업(예정)자인 경우: 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+5. **면접평가**:
+   - 평가영역: 학업역량과 전공적합성
+   - 평가요소: 문제해결능력, 진로정보 탐색능력 등
+   - 평가기준 및 내용은 지원동기와 학업계획, 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 등을 포함합니다.
+6. **부정적 사례**: 학교생활기록부 작성 과정에서 부정적인 사례가 있으며, 이는 학생이 직접 작성한 내용을 교사가 분석하지 않고 단순히 기재하거나, 학교 밖에서의 경험을 학교생활기록부에 기재하는 등의 경우를 포함합니다.
+7. **동점자 처리기준**: 면접고사 성적 상위자가 우선 순위로 처리됩니다.
+이러한 내용들을 참고하여 평생학습자전형에 지원할 수 있습니다. 자세한 사항은 https://ipsi. deu. ac. kr/main. do를 방문해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받아, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.668318311583793</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업 또는 자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지 않는다고 주장하지만, 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 포함하고 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본 텍스트는 실기고사에 대한 정보를 제공하는 반면, 생성된 응답은 그러한 정보가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사에 대한 정보를 제공하는 반면, 생성된 응답은 다른 주제에 대한 정보만을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 있습니다. 실기고사에 대한 정보가 없다는 주장은 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 부정확하게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4362870612549292</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사와 관련된 내용이 없습니다. "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"에 대한 서류평가 및 면접평가의 세부 사항들이 주로 설명되어 있지만, 실기고사와 관련된 정보는 없습니다. 
+더 자세한 내용을 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보세요. 해당 사이트에서 가장 정확하고 최신의 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기고사 종목과 배점에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 원본 텍스트와 관련이 없는 잘못된 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 아닌 다른 내용을 제공합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 이 점수는 제한적입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용이 원본 텍스트와 관련이 없기 때문에 이 점수는 제한적입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3407563495357684</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 모집단위에 따라 실시됩니다:
+1. **제자리 멀리뛰기**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율): 240점 (24%)
+2. **메디신볼 던지기**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율): 243점 (23%)
+3. **Z-런**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율): 230점 (23%)
+따라서, 체육학과의 실기고사는 해당 모집단위에 따라 제자리 멀리뛰기, 메디신볼 던지기 또는 Z-런 중 하나를 선택하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 사실과 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본에서는 전화 통보가 이루어지지 않는다고 명시되어 있지만, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본의 핵심 내용과는 다르게 잘못된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본과의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 모두에서 매우 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6786519177079594</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보 방식으로 안내를 드립니다. 따라서 합격자 발표 이후에 학교에서 전화로 연락을 주게 됩니다.
+발표 일정은 다음과 같습니다:
+- 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+합격자 발표 및 등록금 납부에 대한 자세한 일정은 입학 안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수시모집 결과에 대한 정보가 없다는 점을 반복적으로 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과에 대한 정보 요청에 적절히 대응하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8348856900705491</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 제공된 정보 중에서는 학과 분리, 학과 명칭 변경 등 주요 변경사항들이 나와 있지만, 특정 학과의 수시모집 결과는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 수능 응시 여부와 관계없이 지원이 가능하다는 주장은 원문과 모순됩니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와 관련이 있지만 부적절한 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 불필요하게 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 부족합니다. 특히, 중국어 부분은 원문과의 일관성을 더욱 떨어뜨립니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있으며, 전반적으로 원문과의 관계가 부적절합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4049553473239101</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 전형별로 다양한 지원 자격이 있으며, 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능한 경우가 있습니다.
+특히, 학생부종합 평가를 기반으로 하는 전형에서는 수능 점수보다는 학생부 성적과 면접 등을 통해 지원자의 적합성을 판단합니다. 따라서 수능 응시 여부와 관계없이 지원이 가능한 전형들이 있습니다.
+具体的来说，2024年，即使没有参加高考的学生也可以申请。每年的招生标准会有所不同，但通常有一些基于学生档案综合评估的招生类型，在这些类型中，高考成绩并不是决定性因素，而是通过学生的学业成绩和面试等来判断其是否适合。
+为了获取更详细的信息，请访问以下网站进行确认：“https://ipsi. deu. ac. kr/main. do”。</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고 있습니다. 이는 원본 텍스트와 완전히 상반되는 내용으로, 여러 가지 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원본 텍스트는 지원 가능성을 명확히 하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 잘못된 정보를 바탕으로 설명하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6144778103077445</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>10년이 지난 후에는 정시 모집에 지원할 수 없습니다. 한국의 대학 입학 제도에서는 고등학교 졸업 자격을 갖추고 있는 경우에만 지원이 가능합니다. 즉, 현재 상황에서 10년 전에 졸업한 상태라면 재수나 다른 교육 프로그램을 통해 학력 증진을 해야 합니다.
+더 구체적인 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나, 해당 대학의 입학처에 문의하는 것이 좋습니다. 입학처에서는 개인의 상황에 맞는 가장 적절한 조언을 제공할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8108025229961062</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 공고됩니다.
+   - 비고: 입학안내 홈페이지에서 공고합니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 접수되며, 마감시간은 각 날짜의 오후 6시입니다.
+   - 비고: [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)를 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 접수되며, 마감시간은 각 날짜의 오후 5시입니다.
+   - 비고: 서류 제출 대상 (Ⅳ. 전형별 세부 안내 참조)에 따라 제출 방법이 우편발송 또는 직접 제출입니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자)**: 2024년 2월 2일(금) 오후 2시에 발표됩니다.
+   - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)**: 2024년 2월 7일(수)부터 13일(화)까지 (은행 마감 시간 내)에 등록됩니다.
+   - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시에 발표됩니다.
+   - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+9. **합격자 발표 및 등록금 납부 (충원 합격자 1차)**: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지 등록됩니다.
+   - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+10. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시에 발표됩니다.
+    - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+11. **합격자 발표 및 등록금 납부 (충원 합격자 2차)**: 2024년 2월 15일(목) 오전 9시부터 오후 4시까지 등록됩니다.
+    - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+12. **합격자 발표 및 등록금 납부 (충원 합격자 3차 이후)**: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지 개별 전화 통보로 진행됩니다.
+    - 비고: *발표: 홈페이지에서 개별 조회 * 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+이상이 2024년 동의대학교 정시 모집일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명된 내용이 원본 텍스트와 일치하며, 모든 세부 사항이 정확하게 반영되었습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 잘 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 모든 정보가 정확하게 전달되었으며, 원본 텍스트의 사실을 잘 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 의미가 적절하게 전달되었으며, 원본 텍스트의 맥락과 잘 맞습니다.
+9. Understandability Score (1-5): 5
+   - 응답이 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8575536377039361</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)에 공고됩니다.
+   - 비고: 입학안내 홈페이지에서 공고합니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 1월 6일 (토)까지 접수되며, 마감 시간은 각 날짜의 오후 6시까지입니다.
+   - 비고: [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)를 참조하세요.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수)부터 1월 12일 (금)까지 접수되며, 마감 시간은 각 날짜의 오후 5시까지입니다.
+   - 비고: 서류 제출 대상에 따라 접수 사이트에서 우편 발송용 표지를 출력하여 부착하거나 우편으로 제출합니다. (제출서류가 있는 경우)
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 오후 2시
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)까지 (은행 마감 시간 내)
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 오전 9시
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 오전 9시부터 오후 4시까지
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 오전 9시
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 오전 9시부터 오후 4시까지
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024년 2월 15일 (목) 오후 7시부터 2024년 2월 20일 (화) 오후 6시까지
+     - 비고: *발표*: 홈페이지에서 개별 조회 가능  
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능  
+     - *등록장소*: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+이상으로 동의대학교 정시 모집 일정을 설명하였습니다. 필요하시면 추가 정보를 제공해 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자의 지원 불가능성을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 내용적 일관성이 결여되어 있어 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6585732656368869</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 "학생부종합(평생학습자전형)"입니다. 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자를 대상으로 합니다.
+추가 정보:
+- 모집인원: 17명
+- 모집단위 및 계열: 인문사회과학대학 - 인문사회 - 국어국문학과 - 교직
+이 전형은 수능 미응시자도 지원 가능하며, 학생부 종합 평가를 통해 선발됩니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자 수를 34명으로 언급하고 있으나, 원본 텍스트에서는 전년도 충원 합격자가 36명이라고 명시되어 있습니다. 또한, 충원 합격(후보순위) 63명에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 1차에서 63명이 합격했다고 주장하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 질문에 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 특히, 충원 합격자 수와 차수에 대한 정보가 서로 충돌하여 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 이는 정확성에 큰 영향을 미칩니다. 전년도 충원 합격자 수에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 차이가 있습니다. 특히, 충원 합격자 수에 대한 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 정확성이 떨어지기 때문에 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7641108955481865</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 충원 합격자는 34명이며, 충원 합격(후보순위)은 63명입니다. 이는 1차에서 63명이 합격하였음을 의미합니다.
+따라서 전년도에 전자공학과의 충원 합격은 최소 1차까지 이루어졌습니다. 하지만 정확한 차수를 알기 위해서는 전년도의 자세한 합격 정보가 필요합니다. 만약 더 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+2. Consistency Score (1-5): 1
+3. Relevance Score (1-5): 2
+4. Fluency Score (1-5): 3
+5. Coherence Score (1-5): 2
+6. Accuracy Score (1-5): 1
+7. Multidimensional Quality Score (1-5): 1
+8. Semantic Appropriateness Score (1-5): 2
+9. Understandability Score (1-5): 3
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6004888125118094</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果您需要此信息，可以访问以下网站以获取帮助：https://ipsi. deu. ac. kr/main. do。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 처리 방식을 다르게 설명하고 있으며, 원본 텍스트에서 언급된 '등록 의사가 없는 것으로 간주'되는 부분을 누락하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 연락이 두절되면 등록 포기자로 처리된다고 명시되어 있지만, 생성된 응답은 다른 방법으로 합격 사실을 고지할 것이라고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 내용을 완전히 반영하지는 않습니다. 그러나 전화 통보와 관련된 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본의 내용을 충분히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 설명하고 있으며, 중요한 세부사항을 누락하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 적절성 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다. 그러나 문장은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5132022744924594</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 학생에게 다시 연락을 시도하거나 다른 방법으로 합격 사실을 고지할 예정입니다. 구체적인 처리 방식은 공고에서 명시되어 있으므로, 관련 정보를 확인하시기 바랍니다. 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 농어촌학생전형에 필요한 서류에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 원본의 내용과 일치하지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 서류를 언급하고 있지만, 원본 텍스트에서 요구하는 구체적인 서류 목록과는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 필요한 서류 목록을 잘못 제시하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 농어촌학생전형에 대한 서류를 언급하고 있지만, 원본 텍스트의 맥락과는 맞지 않으며, 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.5940340883379254</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 농어촌학생전형에 대한 내용이 포함되어 있지 않습니다. 농어촌학생전형의 경우, 일반적으로 다음과 같은 서류가 필요하게 됩니다:
+1. **지원동기 및 학업계획서**: 지원 동기에 대해 자세히 작성하며, 입학 후 어떤 목표를 세우고 이를 달성하기 위한 계획을 포함해야 합니다.
+2. **학생부 기록**: 고교에서 받은 학생부 기록을 제출합니다.
+3. **수능 성적증명서**: 수능 성적이 필요하며, 이는 공증된 성적증명서로 제출해야 합니다.
+4. **추천서**: 일부 대학에서는 교사나 가족의 추천서를 요구할 수 있습니다.
+하지만, 정확한 서류 목록은 각 대학마다 다를 수 있으므로, 농어촌학생전형에 지원하려는 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do)에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 '6년과정' 서류 제출 가능성에 대한 언급은 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, '6년과정' 서류 제출 가능성에 대한 추가 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 '6년과정'에 대한 언급이 원본과 다르기 때문에 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, '6년과정' 서류 제출 가능성에 대한 언급이 원본 텍스트에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8134896646578383</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야하는 서류는 다음과 같습니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+이 외에 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 이전 학년도에 대한 언급도 포함되어 있어 사실적 정확성이 높습니다. 그러나 "현재 정보로는 해당 전형이 없어 보입니다"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 기회균등 전형이 없다는 내용을 전달하고 있습니다. 다만, "이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "해당 전형이 없어 보입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "이전 학년도"에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 기회균등 전형이 없다는 점을 정확히 전달하고 있습니다. 그러나 "현재 정보로는 해당 전형이 없어 보입니다"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "해당 전형이 없어 보입니다"라는 표현은 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.66292962442975</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 저소득 기회균등 전형이 없습니다. 이전 학년도에는 일부 대학에서 저소득층 지원을 위해 특별한 전형을 운영하였으나, 현재 정보로는 해당 전형이 없어 보입니다.
+더 자세한 내용이나 변경사항이 있다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시거나 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.5 등급이 그대로 처리된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있습니다. 따라서 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 여부에 대한 정보가 없다는 점을 무시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6754016115963085</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절대값이기 때문에 그대로 2.5 등급으로 처리됩니다. 수능 최저등급에서 사탐 2 과목의 평균산출을 할 때 나오는 값은 그대로 사용합니다. 따라서 2.5 등급이 나온다면 그대로 2.5 등급으로 보시면 됩니다.
+만약 자세한 내용이나 다른 질문이 있으시다면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 날짜에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 차수에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8344964534333755</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 2024년 2월 14일(수) 오전 9시에 진행됩니다.
+2. **2차 충원 합격자 발표**: 2024년 2월 15일(목) 오전 9시에 진행됩니다.
+3. **3차 충원 합격자 발표**: 이는 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지 개별 전화 통보 방식으로 이루어집니다.
+이와 같이 총 3차로 합격자 발표가 이루어지며, 각 차례마다 합격자들이 발표되거나 통보됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 수능 최소 성적 기준에 대한 정보를 제공하지 않으며, 이는 원본 텍스트에서 제공된 정보와 상충합니다. 원본 텍스트는 수능 4개 영역 등급이 4.6점일 경우 합격 가능성을 언급하고 있으나, 생성된 응답은 이를 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 수능 성적에 대한 구체적인 정보를 제공하고 있으며, 합격 가능성에 대한 언급이 있지만, 생성된 응답은 이러한 정보를 무시하고 다른 방향으로 이야기하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 수능 성적 기준에 대한 질문에 직접적으로 답하지 않고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트의 정보와 관련이 적어 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본 텍스트에서 제공된 수능 성적 기준에 대한 정보가 무시되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미의 적절성은 있지만, 맥락과의 일치성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.4711503420380435</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 e비즈니스학과에 대한 모집요강이나 전형 기준 등이 명확히 포함되어 있지 않습니다. 따라서 e비즈니스학과의 수능 최소 성적 기준을 알 수 없습니다.
+추가적인 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조하거나 학교 입학관리팀에 문의하는 것이 좋습니다:
+- https://ipsi. deu. ac. kr/main. do
+이 웹사이트에서 e비즈니스학과의 모집요강을 확인할 수 있으며, 해당 페이지에서 정시 전형으로 추가 합격 가능 여부를 파악하실 수 있습니다.
+또한, e비즈니스학과의 수능 최소 성적 기준이 무엇인지 명확히 알기 위해서는 입학관리팀에 직접 문의하시는 것이 가장 정확한 정보를 얻을 수 있는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 충원 합격자 수, 지원 인원, 표준 변환 점수 평균 및 표준 편차에 대한 정보를 포함하고 있으며, 이는 원본 텍스트의 내용과 관련이 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급과 비교하여 정시 등급 5.3의 합격 가능성에 대한 명확한 결론을 내리지 않기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 정시 등급 5.3에 대한 합격 가능성을 논의하는 데 있어 원본의 내용을 잘 반영하고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정시 등급 5.3에 대한 합격 가능성에 대한 논의가 적절합니다. 그러나 일부 세부 사항에서 더 명확한 정보가 필요할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 원본 텍스트와 잘 연결되어 있습니다. 그러나 약간의 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6455440903688473</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 8.90이며, 충원 합격자는 31명입니다. 지원 인원이 89명으로 많은 지원자가 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.20이며, 표준 편차는 7.56입니다. 이 값들은 e비즈니스학과 지원자의 성적 분포를 나타내며, 평균이 317.20이고 표준 편차가 7.56이라는 점을 고려하면, 정시 등급이 5.3인 학생의 경우는 상당히 높은 점수를 받았음을 의미합니다.
+정시 등급이 5.3이면 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균보다 약간 높을 것입니다. 이는 경쟁률과 충원 합격 인원 수를 고려할 때 최초 합격 가능성에 긍정적인 요인으로 작용할 수 있습니다.
+하지만, 정시 등급이 5.3이라는 점은 단순히 표준 변환 점수보다 높다는 것을 의미하기 때문에, 실제 합격 가능성은 경쟁률과 지원 인원 수, 그리고 해당 학생의 전체 성적 분포를 고려해야 합니다.
+따라서, 정시 등급이 5.3인 경우 e비즈니스학과에 최초 합격 가능성은 있을 것으로 보입니다만, 확실한 것은 아닙니다. 더 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다"는 사실을 간과하고 있습니다. 또한, 모집인원과 전형 요소에 대한 추가 정보를 제공하지만, 원본의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있지만, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 전형 일정과 모집 인원에 대한 정보는 유용하지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 예비 38번의 합격 가능성에 대한 명확한 결론이 없고, 여러 요소를 나열하는 방식으로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않습니다. 원본의 핵심 사실을 무시하고 다른 요소들에 대한 정보만을 강조하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하며, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 많습니다. 예비 38번의 합격 가능성에 대한 명확한 해석이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 양이 많아 다소 복잡하게 느껴질 수 있습니다. 그러나 주요 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5504928084535021</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 가능성 판단이 어렵습니다. 전형일정과 모집인원, 전형요소 반영 비율 등을 고려해야 합니다.
+가군 수능(일반학생전형)의 경우, e비즈니스학전공에 대한 모집인원은 28명입니다. 이는 상당한 수의 지원자를 받을 것으로 예상됩니다.
+나군 학생부종합(조기취업형계약학과전형)의 경우, 정원 외 서류평가와 면접평가를 통해 선발합니다. 이 전형에서는 서류평가와 면접평가 성적 순으로 결정되며, 동점자 처리 기준도 있습니다.
+이정도로의 순위만으로는 판단하기 어렵습니다. 지원자의 학업역량, 전공적합성, 면접 성적 등 다양한 요소가 고려되기 때문입니다.
+추천되는 방법은 다음과 같습니다:
+1. 자신의 서류평가 점수와 면접 성적을 확인하세요.
+2. 동점자 처리 기준을 참고하세요.
+3. 입학사정관의 평가를 얻어보세요.
+더 자세한 정보는 학교 입학관리팀에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 3.44의 성적이 합격 가능성이 있다고 주장하는 부분은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 3.44의 성적이 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 3.44의 성적이 합격하기 어려울 수 있다고 언급하는 반면, 생성된 응답은 합격 가능성이 있다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장은 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 일관성이 부족하여 전체적인 일관성은 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 3.44의 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 다르게 해석되고 있어 의미적 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.560280760976582</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 모집인원은 110명이며, 지원 자격 중 하나로 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자라는 점을 고려하면, 성적 3.44는 충분히 합격 가능성 있는 범위입니다.
+학생부 종합 평가에서 반영되는 과목은 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이며, 성적 3.44는 좋은 성적으로 보입니다.
+하지만 합격 가능성은 정확한 지원자 수와 경쟁률에 따라 결정되므로, 최종 합격 여부를 확인하기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 또한, 동의대학교 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 자세한 정보를 확인하실 수 있습니다.
+따라서 성적 3.44는 합격 가능성 있는 범위에 속하지만, 최종 결정은 경쟁률과 지원자 수 등 다양한 요인에 따라 달라질 수 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급보다 높은 성적을 가지고 있다고 언급된 원문과 상반된 내용을 제시하고 있습니다. 원문에서는 2.52의 성적이 합격 가능성이 높다고 했으나, 생성된 응답에서는 합격하기 어렵다고 판단하고 있습니다. 이로 인해 사실관계에 대한 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 주장을 하고 있어 일관성이 부족합니다. 원문은 2.52의 성적이 평균보다 높다고 하였으나, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다. 이러한 모순으로 인해 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 관련된 내용을 다루고 있으며, 추가적인 조언을 제공하고 있습니다. 그러나 원문에서 강조한 합격 가능성에 대한 정보와는 다소 다른 방향으로 나아가고 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있습니다. 특히, 합격 가능성에 대한 판단이 원문과 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실관계와 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와는 다소 다른 방향으로 해석되고 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 내용이 원문과의 연결이 약해 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5524860471155866</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과에 최종합격하기는 어렵다고 판단됩니다. 간호학과의 경쟁률이 6.59이며, 충원합격자는 37명으로 많은 지원자가 있습니다. 또한, 학생부 종합전형에서 평균 점수가 353.48이고, 표준편차가 4.66이라는 것을 고려하면, 수능 성적이 2.52인 경우 충분한 경쟁력을 갖추기 어렵습니다.
+하지만, 최종 합격 여부는 수능 점수뿐만 아니라 학생부 종합전형의 평가 결과와 면접 성적 등 다양한 요소에 의해 결정됩니다. 따라서, 다음과 같은 준비를 하는 것이 도움이 될 것입니다:
+1. **학생부 종합전형**:
+   - 활동 기록을 철저히 정리하고, 진로 탐색 과정과 관련된 활동을 강조합니다.
+   - 학교생활기록부와 동아리 활동, 진로활동 등에 대한 자세한 설명을 합니다.
+2. **면접 준비**:
+   - 지원동기에 대해 명확하고 진심 어린 답변을 합니다.
+   - 간호학과에 대한 이해도와 전공적합성을 강조합니다.
+   - 학업계획과 미래의 목표를 구체적으로 이야기합니다.
+3. **추천서 작성**:
+   - 선생님이나 지도교사에게 추천서를 받아, 자신의 장점과 성장과정을 잘 설명하도록 합니다.
+이러한 준비를 통해 학생부 종합전형에서 더 높은 점수를 받고, 면접에서도 좋은 평가를 받는 것이 중요합니다. 하지만, 경쟁률이 매우 높기 때문에 최종 합격 가능성은 낮다고 판단됩니다. 다른 대학이나 전공을 고려해 보시는 것도 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보와 학생부종합 평가의 중요성을 언급하고 있지만, 원본 텍스트에서 제시된 정시 성적에 대한 합격 가능성에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 정시 성적이 3.7이라는 점에 대한 해석이 다릅니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다른 전형에 대한 정보로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과에 지원하기 위한 전형과 관련된 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 정시 성적에 대한 합격 가능성에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약해져서 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 전형에 대한 정보를 제공하지만, 원본 텍스트의 정시 성적에 대한 정확한 해석이 부족합니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 간호학과에 대한 정보를 잘 전달하고 있습니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5924506557668873</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집군 변경사항을 보면, 간호학과는 특정 전형에 포함되어 있지 않습니다. 따라서 간호학과에 지원하려면 일반전형이나 특별전형 등을 통해 지원해야 합니다.
+학생부종합 평가영역에서 학업역량이 중요한 요소 중 하나로 반영되므로, 정시 성적이 3.7이라면 학생부의 교과성적을 잘 보여줘야 합니다. 특히 간호학과에서는 인문사회과학적 기초지식과 실기능력이 요구되는 만큼, 관련 과목의 성적과 활동 경력을 잘 준비해두시는 것이 중요합니다.
+또한, 학생부종합 평가에서 공동체역량이나 전공적합성 등도 중요한 요소로 작용하므로, 이러한 부분을 강화하는 것도 필요합니다. 
+입학사정관이 지원자의 전체적인 성장을 종합적으로 판단하기 때문에, 지원자 개인의 특성을 잘 보여줄 수 있는 자료들을 준비하시기 바랍니다.
+더 자세한 정보를 얻으시려면 https://ipsi. deu.ac.kr/main.do 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 수능 성적 2.58이 중등 정도의 점수라는 주장은 다소 모호하며, 간호학과에 합격하기 어려울 것이라는 예측은 원본 텍스트의 긍정적인 합격 가능성과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적 2.58이 간호학과에 합격하기 어려울 것이라는 주장은 원본 텍스트의 내용과 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 모집에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 주제가 약간 벗어나는 경향이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적 2.58이 간호학과에 합격하기 어려울 것이라는 주장은 정확하지 않습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 주장은 원본 텍스트의 긍정적인 내용을 반영하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6621302809315265</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정시 모집 정보를 기반으로 답변 드리겠습니다.
+간호학과는 주로 학생부 종합전형을 통해 선발되며, 정시모집은 일반적으로 수능 성적을 기준으로 합니다. 2024학년도 동의대학교 간호학과의 정시 모집에서는 수능 점수를 기준으로 합격자를 선발합니다.
+현재 제공된 정보로는 특정 학교의 정시 모집 절차와 기준을 명확히 알 수 없습니다. 하지만 일반적으로 수능 성적 2.58은 중등 정도의 점수이며, 이 점수만으로 간호학과에 정시 전형으로 합격하기는 어려울 것으로 예상됩니다.
+정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 해당 년도의 정시 모집 안내 및 기준을 확인하시거나, 동의대학교 입학처에 직접 문의하시는 것이 좋습니다.
+추가로, 간호학과는 실기 평가와 면접 등 다양한 요소를 고려하기 때문에 수능 점수 외에도 다른 요소들이 합격 기준에 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 게임공학과의 모집단위와 모집인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 게임공학과에 대한 충원합격 가능성을 언급하고 있지만, 생성된 응답은 로봇자동화공학과에 대한 정보를 제공하며, 이는 원본 텍스트와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 게임공학과에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과에 대한 정보를 제공하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 다른 학과에 대한 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 매우 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5721360390672972</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 게임공학과에 대한 모집단위와 모집인원이 직접적으로 언급되어 있지 않습니다. 게임공학과의 모집 상황을 확인하려면, 해당 대학의 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 관계자에게 문의하는 것이 가장 정확할 것입니다.
+현재 정보에서는 게임공학과에 대한 모집 단위와 인원이 다음과 같습니다:
+- 모집단위: 로봇자동화공학과
+- 모집인원: 28명
+따라서, 게임공학과의 경우 모집 대상이 아닌 것으로 보입니다. 
+더 정확한 정보를 얻기 위해서는 입학 안내 홈페이지를 확인하거나 학교 관계자에게 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 점수 4.16이 낮다고 언급하고 있으며, 합격 가능성이 낮다고 주장하고 있습니다. 그러나 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 명시하고 있어, 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본에서는 4.16이 합격 가능성이 높다고 했지만, 생성된 응답에서는 낮은 점수라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과 지원에 대한 정보와 조언을 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보와는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 수능 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6368737119831135</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 게임공학과에 지원하기에는 다소 낮은 편입니다. 동의대학교 게임공학과의 경우, 정시 모집에서 수능 점수가 높은 편이므로 4.16점으로 합격하는 것은 어렵다고 볼 수 있습니다.
+게임공학과의 지원을 위해서는 다음과 같은 절차와 자료가 필요합니다:
+1. **수능 성적**: 최소한 4.20 이상이어야 합니다.
+2. **학생부 종합 평가**: 학생부 종합 평가에서 우수한 결과를 얻어야 합니다.
+3. **면접 준비**: 면접에서도 좋은 성과를 내야 합니다.
+현재의 수능 점수가 4.16이라면, 추가 합격이 가능할 확률은 매우 낮습니다. 만약 게임공학과에 지원을 고려하고 있다면, 다음의 방법들을 통해 점수를 높이는 것이 좋을 것입니다:
+- **재수 준비**: 수능 재수를 계획하여 점수를 향상시키는 것을 고려해 보세요.
+- **추가 학습**: 필요한 과목에 대한 추가 학습을 진행하여 성적을 향상시킵니다.
+또한, 동의대학교 게임공학과 외에도 다른 대학이나 전공을 고려해 보는 것도 좋은 방법입니다. 다양한 선택지를 통해 가장 적합한 학교와 전공을 찾으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 내용은 포함되어 있지 않습니다. 따라서 일부 사실은 반영되었으나, 중요한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 정시모집군에 대한 정보가 추가되면서 원본의 핵심 내용과는 다소 일관성이 떨어집니다. 특히, 성적 3.75에 대한 최초등록자 가능성에 대한 언급이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군에 대한 정보를 제공하며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 주요 내용인 평균 등급과 합격 가능성에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용과의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시모집군에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6176533848565413</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과를 지원하려면 정시모집군을 확인해야 합니다. 제공된 정보에서 2024학년도에는 정시모집군이 변경되었으며, 예전의 경우와 달리 특정 학과별로 정시모집군이 다를 수 있습니다.
+현재 제공된 정보만으로는 경영정보학과의 정시모집군을 명확히 알 수 없습니다. 따라서, 경영정보학과의 정시모집군을 확인하시기 바랍니다. 만약 해당 정보가 부족하다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하여 최신 정보를 얻으시는 것이 좋습니다.
+또한, 정시모집군이 변경되었기 때문에, 성적 3.75가 최초등록자로 가능할지 여부도 확인해야 합니다. 이 역시 해당 학과의 정시모집군에 따라 달라질 수 있으므로, 공식 웹사이트를 통해 최신 정보를 얻으시는 것이 좋습니다.
+결론적으로, 경영정보학과의 정시모집군과 성적 3.75가 최초등록자로 가능할지 여부는 해당 학과의 정시모집군에 따라 달라질 수 있으므로, 공식 웹사이트를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 여부를 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서 제공된 평균 등급과 비교하여 4.2의 성적이 낮다고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 구체적인 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 경영정보학과의 평균 등급에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 4.2의 성적이 낮다고 명시하고 있으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 여부에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교하는 부분이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 완전한 일관성을 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 여부를 판단하기 어렵다고 하지만, 원본 텍스트의 구체적인 수치와 비교하여 4.2의 성적이 낮다는 점을 명확히 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본의 구체적인 수치와 비교하는 부분이 부족하여 완전한 적절성을 갖추지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6119582524195197</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 여부를 판단하기 어렵습니다. 경영정보학과의 정시 합격 기준은 고교 성적 외에도 다른 요소들(학생부, 면접 등)을 종합적으로 평가하므로 단순히 4.2의 성적이 충분한지 알 수 없습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 해당 학과의 정시 모집요강을 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.
+입학 관련 자세한 내용은 동의대학교 입학처에서 가장 정확하고 최신 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 5.33이 동의대학교 경영정보학과의 평균 등급보다 낮다는 사실을 언급하고 있으며, 합격 가능성에 영향을 미치는 다른 요소들(서류평가, 면접 평가 등)을 설명하고 있습니다. 그러나, 원문에서 제공된 구체적인 평균 등급 수치(영어 3.25, 수능 4.31)에 대한 언급이 없으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정시 성적이 합격 가능성에 미치는 영향을 설명하고 있으며, 서류평가와 면접 평가의 중요성을 강조하고 있습니다. 그러나 원문에서 제시된 평균 등급 수치에 대한 언급이 없기 때문에 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 정시 성적과 합격 가능성에 대해 직접적으로 관련된 정보를 제공합니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장이 다소 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적과 합격 가능성에 대한 정보를 정확하게 전달하고 있지만, 원문에서 제공된 구체적인 평균 등급 수치에 대한 언급이 없으므로 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 일관성이 높습니다. 그러나 일부 세부 사항에서 부족함이 있어 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 질문의 맥락에 적절하게 대응하고 있습니다. 다만, 원문에서 제시된 구체적인 수치에 대한 언급이 없으므로 약간의 의미적 적합성 부족이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6057967699243292</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 판단이 어렵습니다. 정시 성적 5.33은 동의대학교 경영정보학과의 일반학생전형에 합격 가능성에 영향을 미치지만, 최종 합격 여부는 서류평가와 면접 평가 등 다른 요소들에 따라 결정됩니다.
+서류평가와 면접 평가는 학생부 성적 외에도 다양한 측면을 고려합니다. 예를 들어:
+1. **학생부 성적**: 교과 성적, 과목별 표준점수 등이 반영됩니다.
+2. **실기/실적**: 경기 실적 우수자 전형에 대한 성적이 중요할 수 있습니다.
+3. **면접 성적**: 면접에서의 학업역량, 전공적합성 등을 평가받습니다.
+따라서 정시 성적 5.33만으로는 확정적인 판단을 내리기 어렵습니다. 동의대학교 경영정보학과 일반학생전형에 대한 최종 합격 여부를 확인하려면, 해당 전형의 서류평가 점수와 면접 평가 점수 등 다른 요소들을 종합적으로 고려해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 잘못 해석하고 있습니다. 원본 텍스트에서는 3.33의 성적이 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 이 성적이 낮다고 잘못 판단하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 성적에 대한 해석이 상반됩니다. 원본에서는 3.33이 합격 가능성이 높다고 하지만, 생성된 응답에서는 낮은 수준이라고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있지만, 주어진 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 논리적인 흐름이 다소 부족합니다. 성적에 대한 해석이 원본과 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 성적에 대한 판단이 부정확합니다. 원본의 정보와 비교했을 때 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본의 의미와 다르게 해석하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7320768211194788</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 식사능력과에 대한 정보를 기반으로, 현재 제공된 데이터만으로는 정확한 답변을 드리기 어렵습니다. 하지만 주어진 성적(3.33)은 바이오응용공학부 최초등록자로 지원하기에는 낮은 수준일 가능합니다.
+바이오응용공학부의 경우, 2024학년도에 다음과 같은 특징을 가집니다:
+- 모집단위: 의생명공학과, 바이오의약공학과, 식품공학과
+- 모집인원: 각각 15명 (총 45명)
+- 지원인원: 각각 30명 (총 90명)
+- 경쟁률: 약 2.00
+이러한 정보를 바탕으로, 성적 3.33은 경쟁률이 낮은 학과에서나 가능할 수 있으며, 바이오응용공학부의 경우 경쟁률이 높아서 이 성적이 충분히 좋은 성적을 보여주지 못할 것으로 판단됩니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입시 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 대학 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하고 있지만, 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 점을 간과하고 있습니다. 따라서, 합격 가능성에 대한 주장은 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다고 언급한 원문과 상충하는 내용을 포함하고 있습니다. 현재 정시 등급이 4.4라는 점을 고려할 때, 합격 가능성이 낮다는 원문의 주장을 반박하는 내용이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하고 있으며, 질문자의 관심사와 관련이 있습니다. 그러나 원문에서 제시된 평균 등급과 합격 가능성에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 특히, 합격 가능성에 대한 주장이 원문과 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 모집인원과 전형요소에 대한 정보를 제공하지만, 원문에서 제시된 평균 등급과 합격 가능성에 대한 정보와 일치하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원문의 맥락과는 다소 어긋나는 내용이 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 원문과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6232710765773301</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집인원 및 전형요소를 확인해보겠습니다.
+방사선학과는 공과대학의 학과로, 2023년도에는 로봇자동화공학과와 함께 28명을 모집하였습니다. 그러나 2024년도에 방사선학과가 신설되었음을 확인할 수 있습니다.
+전형요소 반영비율은 다음과 같습니다:
+- 수능: 100%
+- 실기: -
+따라서, 현재 성적인 4.4정시 등급으로는 충분히 합격 가능할 것으로 보입니다. 하지만 정확한 모집인원과 전형요소를 확인하시기 바랍니다.
+추가적으로, 방사선학과의 입학전형 안내 및 모집인원은 공과대학 홈페이지에서 확인하실 수 있으니, 해당 페이지를 참조해보시는 것이 좋겠습니다. 필요하다면 "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공고를 확인하시기 바랍니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보를 무시하고, 나군 학생부종합 전형에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트의 핵심 내용을 왜곡하고 있으며, 방사선학과에 대한 정보가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 방사선학과에 대한 정보가 아닌 다른 전형에 대한 정보를 제공하고 있어, 원본의 내용과 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과와 관련된 질문에 대한 답변이 아닌, 다른 전형에 대한 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와의 관련성이 떨어져서 전체적인 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지 않으며, 잘못된 정보(학생부종합 전형에 대한 설명)를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관련성이 부족하고, 정확성 또한 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 방사선학과에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6780738936749097</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보는 방사선학과와 관련이 없어 보입니다. 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 평가 기준을 바탕으로 답변하겠습니다.
+2.66은 1등급에 해당하는 점수입니다 (학생부종합(평생학습자전형)에서는 서류 70%, 면접 30%로 구성되어 있습니다). 이 점수는 매우 높은 수준이며, 학업역량과 전공적합성 모두에서 우수한 평가를 받았음을 의미합니다.
+만약 방사선학과에 지원한다면, 해당 분야와 관련된 활동이나 경험을 강조하는 것이 좋습니다. 또한 면접에서는 지원 동기와 입학 후 계획을 명확하게 설명하는 것이 중요할 것입니다.
+만일 위험하다고 느껴진다면, 추가적인 정보를 얻거나 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하여 자세한 내용을 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 일부 반영하고 있지만, 합격 가능성에 대한 구체적인 정보가 부족하고, 원본에서 언급된 경쟁률 감소와 같은 긍정적인 요소를 충분히 강조하지 않고 있습니다. 또한, 학교생활기록부 평균 점수와 같은 추가적인 요소를 언급하고 있지만, 이는 원본 텍스트에서 제공된 정보와는 다소 다른 방향으로 나아가고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 합격 가능성에 대한 정보가 원본의 긍정적인 전망과는 상충하는 부분이 있습니다. 특히, "정확한 답변을 드리기 어렵습니다"라는 표현은 원본의 희망적인 메시지와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본에서 강조된 경쟁률 감소와 같은 긍정적인 요소를 충분히 다루지 않고 있습니다. 그러나 지원자의 성적과 관련된 다양한 요소를 언급하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 나열되어 있습니다. 그러나 원본 텍스트의 긍정적인 메시지와는 다소 다른 방향으로 흐르는 점이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 합격 가능성에 대한 정보가 원본의 내용과 일치하지 않는 부분이 있습니다. 특히, 경쟁률과 관련된 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 긍정적인 요소를 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 원본의 긍정적인 메시지와는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.6063415359326026</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공 농어촌 전형에 지원하시려는 의도를 이해합니다. 하지만 현재 제공된 정보만으로는 정확한 답변을 드리기 어렵습니다. 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **학교생활기록부 평균 점수**: 3.66의 평균 점수가 좋은데, 이 점수는 학교생활기록부 평균 점수와 일치해야 합니다.
+2. **전형 요소 반영 비율**:
+   - 서류: 70%
+   - 면접: 30%
+3. **면접 성적**: 면접에서도 좋은 성적이 필요합니다.
+4. **기타 지원 자료의 질**: 학교생활기록부 외에 제출해야 하는 서류들(예: 활동 증명서, 자기소개서 등)의 내용과 질이 중요합니다.
+5. **모집인원 및 경쟁률**: 모집인원 7명이고, 경쟁률은 높을 수 있습니다.
+6. **입학사정관 평가**: 입학사정관들이 학생들의 전체적인 역량을 종합적으로 평가합니다.
+이러한 요소들을 고려하여, 현재의 성적만으로는 확실하게 합격할 수 있을지 알 수 없습니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 추가적인 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 예비 25번의 순위와 합격 확률에 대한 여러 요인을 언급하고 있으며, 이는 원문에서 제공된 정보와 일치합니다. 그러나 원문에서 명시된 특정 학과 목록을 언급하지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 제시된 정보와 일관되며, 예비 번호와 합격 확률에 대한 설명이 잘 연결되어 있습니다. 다만, 특정 학과에 대한 언급이 없어서 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 합격 확률에 영향을 미치는 요인들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 확률에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 특정 학과에 대한 언급이 없어서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 학과 목록이 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 특정 학과에 대한 정보가 부족하여 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 질문에 대한 적절한 답변을 제공합니다. 그러나 특정 학과에 대한 언급이 없어서 의미의 완전성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 명확성과 이해 가능성에서 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5173352919074069</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위는 높은 순위에 속합니다. 그러나 붙을 확률이 있는지 없는지는 여러 요인에 따라 달라집니다. 예를 들어, 모집인원과 실제 지원자의 수, 그리고 서류평가와 면접평가에서의 성적 등이 중요하게 작용합니다.
+현재 정보로는:
+1. **모집인원**: 각 모집단위별로 정해진 모집인원이 있습니다.
+2. **지원자 수**: 이는 공개되지 않지만, 지원자의 수가 많을수록 경쟁률은 높아집니다.
+3. **평가 요소**: 서류평가와 면접평가에서의 성적이 중요합니다.
+예비 25번이 나왔다는 것은 아직 최종 합격자 발표 전이라는 점을 기억해야 합니다. 최종 합격자 발표에서는 여러 요인들이 고려되므로, 현재 상태에서 붙을 확률은 있을 수 있습니다.
+추가적으로:
+- **서류평가**: 지원자의 학업역량, 공동체역량 등이 평가됩니다.
+- **면접평가**: 지원자의 문제해결능력, 진로정보 탐색능력 등을 평가합니다.
+따라서, 현재 상태에서의 확률을 정확히 예측하기는 어렵습니다. 하지만 최종 합격자 발표를 기다리는 동안, 서류와 면접 준비에 집중하는 것이 좋겠습니다. 필요하다면 입학사정관과 상담하여 추가 정보를 얻어보시는 것도 도움이 될 것입니다.
+더 궁금하신 점이 있으시다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 자세한 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교에 법경찰행정학부가 존재하지 않는다는 사실을 무시하고 있으며, 잘못된 평균 성적(315.78점)을 제시하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과 상반되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 주요 요인입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절한 부분이 있으며, 원본 텍스트의 맥락과 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7667616909392613</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로, 정시 모집에서 안정적인 합격을 위해서는 평균 성적이 315.78점 이상 받는 것이 좋습니다.
+이 점수는 다음과 같은 데이터를 기반으로 추정한 것입니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 315.78
+- 모집인원: 40명
+- 경쟁률: 5.71
+이러한 정보를 바탕으로, 안정적인 합격을 위해서는 평균 성적이 315.78점 이상 받는 것이 좋습니다. 하지만 이 점수만으로는 확실하게 문을 닫고 들어갈 수 있는 보장은 없습니다. 경쟁률이 높아질 경우, 조금 더 높은 점수를 받는 것이 안전할 수 있습니다.
+따라서, 최소 315.78점 이상의 평균 성적을 받는 것이 목표로 좋습니다. 하지만 보다 안정적인 합격을 위해서는 약간 더 높은 점수를 노려볼 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 보육가정상담학과의 정시 모집요강에 대한 구체적인 정보를 제공하지 않고, 일반적인 전형 요소와 반영 비율에 대한 설명을 하고 있습니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급과 관련된 정보는 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 보육가정상담학과에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 원본 텍스트의 주요 포인트인 아동학과의 평균 등급에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 정시 모집요강에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있습니다. 그러나 원본 텍스트의 특정 정보에 대한 직접적인 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트의 특정 정보가 누락되어 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 전형 요소에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 데이터와 비교할 때 정확성이 떨어집니다. 특히 아동학과의 평균 등급에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 특정 정보가 누락되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5357895806973365</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 정시 모집요강을 확인하지 않았습니다만, 일반적으로 정시 등급 산출이 어떻게 이루어지는지와 해당 학과의 전형 요소 반영 비율 등을 고려해야 합니다.
+현재 제공된 정보로는:
+- 2024학년도 동의대학교 학생부교과성적 반영방법은 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영한다고 합니다.
+- 학생부 교과성적 외에 출결, 서류 등이 반영되며, 각 요소의 비율은 정확히 알려지지 않았습니다.
+따라서, 정시 산출 등급이 5.33인 경우, 해당 점수가 동의대학교 보육가정상담학과에서 합격을 위한 기준에 미치는지는 다음과 같은 요소들을 고려해야 합니다:
+1. 해당 학과의 전형요소 반영 비율
+2. 출결 등 결석일수에 따른 반영점수
+3. 서류 및 면접 등의 평가 결과
+위 정보만으로는 정확한 판단이 어렵습니다. 동의대학교의 2024학년도 정시 모집요강을 확인하시거나, 입학처에 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있으며, 대체로 정확합니다. 그러나 "합격 가능성은 아직 높지 않습니다"라는 표현은 다소 부정확할 수 있습니다. 예비 번호가 12번인 경우 합격 가능성이 아예 없지는 않다는 점을 고려해야 합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "합격 가능성은 아직 높지 않습니다"라는 주장은 원본 텍스트의 내용과 일치하지 않습니다. 원본에서는 예비 번호가 12번인 경우 합격 가능성이 있다고 명시하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 번호와 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 합격 가능성에 대한 해석이 다소 주관적일 수 있습니다. 예비 번호가 12번인 경우의 가능성을 명확히 언급하지 않았습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 측면에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 부정확하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7016651410353663</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 아직 높지 않습니다. 현재까지 공개된 정보로는 최종 합격자 발표일이 2024년 2월 20일까지이며, 이 시점에서는 정확한 합격 여부를 알 수 없습니다.
+합격 가능성에 영향을 미치는 요인으로는:
+1. 현재까지의 예비 순위
+2. 모집 인원과 예비 순위 간의 차이
+3. 다른 지원자의 경쟁력
+현재 상황에서는 정확한 합격 여부를 알 수 없으므로, 다음 단계로 진행되는 합격자 발표일을 기다리는 것이 좋습니다. 이 시점에서 중요한 것은:
+1. 입학사정관의 평가 결과
+2. 지원자의 서류 및 면접 성적
+합격 가능성을 높이기 위해서는:
+- 입학사정관과의 소통을 통해 자신의 강점을 부각시킬 수 있는 방법을 찾는다.
+- 필요한 추가 서류를 미리 준비한다.
+최종 합격 여부는 2024년 2월 20일까지 발표되는 합격자 명단에서 확인할 수 있습니다. 이 시점까지 기다리는 것이 가장 올바른 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원본 텍스트에서는 4.75의 성적으로는 지원하기 어렵다고 명시하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답에서는 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 준비에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 성적에 대한 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히, 유아교육학과에 지원 가능성에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 낮아 전반적인 품질이 떨어집니다. 유용한 정보는 포함되어 있으나, 원본 텍스트와의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 준비에 대한 의미를 전달하고 있으나, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.6844257101944163</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75의 성적을 가지고 유아교육학과에 지원하는 것은 가능합니다만, 유아교육학과의 경우 입학사정관이 학생의 전반적인 능력을 종합적으로 평가하기 때문에 단순히 성적이 높다고 해서 무난한 것이 아닙니다. 
+특히, 유아교육학과는 교육적 역량, 창의성, 사회성 등 다양한 요소를 고려하여 지원자를 선발합니다. 따라서 다음과 같은 준비가 필요할 수 있습니다:
+1. **창의적인 활동**: 동아리 활동, 진로활동, 체험활동 등을 통해 창의성을 보여줄 수 있는 증거를 수집하세요.
+2. **사회성 및 팀워크**: 학교생활기록부에서 사회적 역량을 잘 보여주는 부분이 있다면 이를 강조해보세요.
+3. **진로계획**: 지원동기에 자신의 진로계획과 목표를 명확히 서술하여 입학사정관의 관심을 끌 수 있도록 하세요.
+4.75의 성적은 좋은 점수지만, 유아교육학과는 종합적인 평가를 통해 지원자를 선발하므로 단순히 성적이 높다고 해서 무난한 것은 아닙니다. 전반적으로 자신의 능력을 잘 보여줄 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족하다. 원본 텍스트는 특정한 정시 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하다. 따라서 관련성은 있지만, 질문의 핵심을 충분히 반영하지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하다. 원본 텍스트의 핵심 내용과의 연결이 약해 전체적인 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 질문의 맥락과는 다소 동떨어진 정보가 포함되어 있어 의미의 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 일부 복잡한 표현이 있어 완전한 명확성은 부족하다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 그러나 소프트웨어융합학과는 정시로 지원할 수 없다는 원문과는 전혀 관련이 없는 내용입니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 소프트웨어융합학과에 대한 질문에 대한 명확한 답변을 제공하는 반면, 생성된 응답은 다른 학과에 대한 정보를 제공하여 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없는 내용을 포함하고 있습니다. 질문은 소프트웨어융합학과의 정시 지원 가능성에 대한 것이지만, 응답은 소프트웨어공학부에 대한 정보로 전환되어 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제 전환이 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 전혀 일치하지 않으며, 소프트웨어융합학과에 대한 질문에 대한 정확한 답변을 제공하지 않습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 연결이 없고, 질문에 대한 적절한 답변이 아닙니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변이 아닙니다. 따라서 의미적 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제와 관련이 없기 때문에 전체적인 이해도는 떨어집니다. 주제가 전환되어 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3881635052994124</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부가 모집단위로 포함되어 있습니다. 이 학과의 경쟁률과 지원자들의 성적 평균을 기준으로 판단해보겠습니다.
+- **소프트웨어공학부**는 2024학년도에 모집인원이 30명이고, 지원 인원은 146명이며, 경쟁률은 4.87입니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이고, 표준 편차는 7.35입니다.
+이러한 정보를 바탕으로 소프트웨어공학부에 지원하기 위해서는 대략적으로 다음과 같은 성적을 받아야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **영어 등급의 평균**: 3.77
+따라서, 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 317.87 이상이고, 영어 등급이 3.77 이상인 경우 소프트웨어공학부에 지원할 수 있을 것으로 예상됩니다.
+하지만 이는 평균적인 수치이며, 실제 경쟁률과 모집 인원의 변화에 따라 요구 점수가 변동될 수 있으므로, 최종적으로는 입학사정관이 결정하는 점수를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 제공하고 있으며, 서류 평가와 면접 점수의 합산에 대한 내용을 포함하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 서류 평가와 면접 점수의 중요성을 강조하고 있습니다. 다만, 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 답변을 제공합니다. 서류 준비와 관련된 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 학생부 교과성적에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 표현에서 더 명확하게 전달될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.591623828668521</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수를 합산하여 최종 등록자 순위를 결정합니다. 이 때, 서류 평가는 주로 고교 졸업(예정)자의 경우에 해당되며, 검정고시 출신자나 외국고교 졸업(예정)자는 다른 서류가 필요할 수 있습니다.
+서류 평가에서는 학생부종합을 통해 제출된 서류를 기반으로 합니다. 특히 면접 점수보다는 세특 내용이 중요하게 평가되며, 이에 대한 준비가 필요합니다. 세특 내용은 지원동기와 학업계획, 학업역량, 전공적합성 등 다양한 측면에서 자신의 능력과 적합성을 잘 보여주는 것이 좋습니다.
+따로 준비해야 하는 서류는 다음과 같습니다:
+1. **고교 졸업(예정)자**:
+   - 고교 학생부 온라인 제공 동의
+   - 교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+3. **외국고교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부 (만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부)
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능, 원본 재발급 불가능한 경우 원본대조필 가능)
+따라서 세특 내용을 잘 준비하고, 필요한 서류를 정확하게 제출하는 것이 중요합니다. 만약 어떤 점이 의문이라면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 4.08의 성적이 최초합격 가능성이 있다는 점을 잘 설명하고 있습니다. 그러나 일부 세부사항(예: 표준 편차)에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 4.08의 성적이 최초합격 가능성이 있다는 점을 강조하고 있습니다. 그러나 경쟁률에 대한 설명이 원본 텍스트와는 다소 다른 관점을 제시하고 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 따라서 유창성 점수는 최고입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 추가된 정보(예: 표준 편차)는 원본에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 세부사항에서 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본과 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 최고입니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7687423800998521</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부에 최초합격이 가능한지 판단하기 위해서는 여러 요소를 고려해야 합니다.
+1. **모집단위와 지원인원**: 동의대학교 소프트웨어공학부는 정원 외 모집단위로, 7명을 모집하며, 지원 인원은 24명입니다. 이에 따라 경쟁률이 높아 보입니다.
+2. **경쟁률**: 지원인원 24명 중 7명만 선발하므로 경쟁률은 약 3.43 (24 / 7) 가 됩니다. 이는 상대적으로 낮은 경쟁률을 의미합니다.
+3. **평균 점수와 표준 편차**: 평균 점수가 4.12이고, 표준 편차가 0.32인 것을 보면, 성적이 약간 낮은 편이지만, 여전히 좋은 성적을 보여주고 있습니다.
+4. **경쟁률과 성적**: 경쟁률이 높더라도 평균 점수와 표준 편차를 고려하면 4.08의 성적도 충분히 최초합격 가능성을 가지고 있습니다.
+따라서, 4.08이라는 성적을 가지고 동의대학교 소프트웨어공학부에 지원한다면 최초합격 가능성은 높다고 볼 수 있습니다. 하지만 확실한 결정을 내리기 위해서는 해당 대학의 정확한 합격 기준과 경쟁률 등을 확인하는 것이 좋습니다.
+더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 변경되었습니다. 이는 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보를 제공하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보를 다루고 있어 서로 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 소프트웨어융합학과가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있어 부분적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제가 변경되면서 응답의 일관성이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 의미 전달이 약해졌습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제의 변경으로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6412688431701228</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 전형 요소 반영 비율이 변경되었습니다. 2023년도에는 "실기/실적(경기실적우수자전형): 학생부교과(출결포함)30%+서류(실적)70%"였으나, 2024년도에는 "실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%"로 변경되었습니다.
+이는 학생부 교과 성적이 전체 평균의 비중을 줄이고, 출결 점수가 더 큰 비중을 차지하게 되었습니다. 따라서 5등급으로만 지원하는 것은 적절하지 않을 수 있습니다. 대신 학생부 교과 성적과 출결 점수를 고려하여 전체 평균을 맞추는 것이 좋습니다.
+더 자세한 정보가 필요하시다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률, 지원 인원, 평균 점수와 같은 추가적인 요인을 언급하고 있지만, 원본 텍스트에서 제공된 정보(최초합격자 평균 수능 등급과 최종등록자 평균 수능 등급)에 대한 명확한 언급이 부족합니다. 따라서 일부 사실이 누락되었고, 원본 텍스트의 내용을 완전히 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 원본에서 제공된 데이터에 대한 해석이 다소 다릅니다. 원본 텍스트는 4.28이라는 점수가 평균보다 높다고 명시했으나, 생성된 응답은 경쟁률과 지원 인원에 따라 합격 가능성이 달라질 수 있다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 원본에서 제시된 구체적인 데이터에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 원본 텍스트의 정보와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 원본에서 제공된 평균 점수와 관련된 명확한 해석이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 구체적인 데이터에 대한 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6470879798661492</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지 확답하기 위해서는 해당 학과의 경쟁률, 지원 인원 등 정보가 필요합니다.
+위에서 제공된 데이터 중 동의대학교 신소재공학과와 관련된 정보는 없습니다. 하지만 일반적으로 대학별 합격 가능성은 다음과 같은 요인들에 따라 결정됩니다:
+1. **경쟁률**: 경쟁률이 높을수록 합격 가능성은 낮아집니다.
+2. **지원 인원**: 지원 인원이 많을수록 경쟁이 치열해집니다.
+3. **평균 점수**: 해당 학과의 평균 점수가 4.28보다 높다면, 합격 가능성은 낮아질 수 있습니다.
+위 정보를 바탕으로 추정하면:
+- 만약 동의대학교 신소재공학과의 경쟁률이 높고 지원 인원이 많다면, 4.28이라는 점수로는 합격하기 어려울 수 있습니다.
+- 반면에 해당 학과의 평균 점수가 4.28보다 낮거나 경쟁률이 낮다면, 합격 가능성은 높아질 수 있습니다.
+따라서 정확한 답변을 위해서는 동의대학교 신소재공학과의 최종 등록자 정보와 관련 데이터를 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하거나 대학 관계부에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 일반학생전형에서 자기소개서가 필요하지 않다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요하지 않다는 점을 여러 번 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 일반학생전형에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.730008295689372</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다. 이 전형은 주로 수능 점수를 기준으로 학생을 선발합니다. 따라서 자기소개서 작성은 필수사항이 아닙니다.
+만약 추가적인 서류 제출이 요구되는 경우에는 해당 모집단위의 공고 내용을 확인하시기 바랍니다. 위에서 제공된 정보로는 수능 일반학생전형에서는 자기소개서가 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 여러 요소를 고려하여 합격 가능성을 설명하고 있으며, 원본 텍스트의 정보와 대체로 일치합니다. 그러나 일부 세부 사항이 원본 텍스트에서 명시된 내용과 다를 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가 모집에 대한 설명도 포함되어 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 약간의 흐름이 끊길 수 있는 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 부분에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6401703660476875</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 실제로 어떤 학과에 들어갈 수 있는지 결정하는 것은 여러 요소가 포함됩니다.
+1. **학과별 경쟁률**: 동의대학교 각 학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 4.5라는 점수로 추가모집에서도 충분히 들어갈 수 있을 것입니다. 하지만 경쟁률이 낮다면, 더 높은 점수가 필요할 수도 있습니다.
+2. **모집인원**: 각 학과의 모집인원도 중요합니다. 모집인원이 많다면, 4.5라는 점수로 충분히 들어갈 수 있을 것입니다. 반면에 모집인원이 적다면, 더 높은 점수가 필요할 수 있습니다.
+3. **추가모집의 규칙**: 추가모집에서 어떤 기준을 따르는지 확인해야 합니다. 일부 대학에서는 추가모집에서도 원칙적으로 최고점만을 인정하는 경우도 있으므로, 이에 대한 정보를 반드시 확인해야 합니다.
+4. **기타 요인**: 학생부 등급, 특기사항, 면접 결과 등 기타 요인이 포함될 수 있습니다. 따라서 이러한 요소들도 고려해야 합니다.
+위의 정보들을 종합적으로 판단하여 결정하는 것이 좋습니다. 만약 자세한 정보를 얻고 싶다면, 동의대학교의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 동의대학교 신소재공학과의 정시 모집군 변경에 대한 정보를 제공하고 있으며, 2023년도와 2024년도 학과의 변화를 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급에 대한 정보는 포함되어 있지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되게 동의대학교 신소재공학과의 합격 기준에 대한 정보를 제공합니다. 다만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학과의 합격 기준 및 변경 사항에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 정보의 흐름이 약간 더 매끄럽게 연결될 수 있었던 부분이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 신소재공학과의 변경 사항에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 일관성에서 높은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 잘 전달하고 있습니다. 다만, 원본의 특정 세부사항이 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5899720137964986</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 정시 모집군은 변경되었으므로, 정확한 합격 기준을 파악하기 위해서는 공식 홈페이지를 확인해보시는 것이 좋습니다. 하지만, 현재 제공된 정보로는 2023년도와 2024년도의 주요 변경사항만이 있습니다.
+2023학년도에는 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학)가 있었고,
+2024학년도에는 신소재공학과와 고분자나노공학과로 분리되었습니다.
+따라서, 2023년도의 정시 등급을 기준으로 말씀드리면, 해당 학과의 정시 모집군은 &lt;가&gt;군 또는 &lt;나&gt;군이었으며, 수능 성적에 따라 합격 가능했습니다. 하지만, 2024학년도에는 분리된 두 학과로 변경되었기 때문에, 정확한 등급 기준을 확인하시려면 공식 홈페이지를 참조해보시는 것이 가장 정확할 것입니다.
+공식 홈페이지 주소: &lt;https://ipsi. deu. ac. kr/main. do&gt;
+이 페이지에서 모집단위와 전형요소 반영비율 등을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 447점이 작년 신소재공학과의 평균 점수보다 "약간 높았다"고 언급하고 있으나, 실제로는 378.15점으로, 447점은 훨씬 높은 점수입니다. 이로 인해 사실과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 447점으로 합격 가능성이 있다고 언급하지만, "작년 평균 점수가 약간 높았다"는 표현은 모순적입니다. 평균 점수보다 훨씬 높은 점수라는 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 합격 가능성에 대한 정보를 잘 다루고 있으며, 관련된 추가 정보도 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장에서의 표현이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 내용 중 일부는 사실과 다르며, 특히 평균 점수에 대한 언급이 부정확합니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 관련성과 유창성에서 좋은 점수를 받지만, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절합니다. 그러나 일부 표현이 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서의 표현이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6837342370541126</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 작년 환산 점수와 비교해보면, 작년 신소재공학과의 최종 평균 점수가 약간 높았습니다. 하지만 동의대학교에서 정시 모집 시 경쟁률과 지원 인원 등 다양한 요인들이 고려되므로, 447점으로도 충분히 합격 가능성은 있습니다.
+특히, 작년에 비해 지원 인원이 줄어든다면 경쟁률이 낮아져서 더 높은 점수를 요구하지 않을 가능성이 있습니다. 또한, 표준 변환 점수가 평균을 중심으로 분산되어 있으므로, 447점 정도의 점수로도 합격할 수 있는 가능성은 있습니다.
+만약에 확실한 정보가 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확한 답변을 얻는 방법일 것입니다. "https://ipsi. deu. ac. kr/main. do" 를 참고하여 더 자세한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 합격 가능성에 대한 불확실성을 강조하고 있으며, 이는 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 귀하의 성적이 평균 성적보다 높다고 명시하고 있으며, 합격 가능성이 높다고 언급하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 하여 합격 가능성이 높다고 언급했지만, 생성된 응답은 합격 여부에 대한 확신이 없다고 말하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 합격 가능성에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 주요 포인트를 완전히 반영하지는 않으므로, 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 이유를 나열하고 있지만, 전체적으로 논리적인 흐름이 다소 부족합니다. 각 이유가 명확하게 연결되지 않아 일관된 메시지를 전달하지 못하고 있습니다. 따라서, 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 다소 상충하는 내용을 포함하고 있어 정확성 점수는 3으로 평가합니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 하여 합격 가능성이 높다고 언급했으나, 생성된 응답은 그에 대한 확신이 없다고 말하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트와의 일관성 및 사실성에서 부족함이 있어 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지는 않으므로, 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 문장이 복잡할 수 있어 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5390099264693204</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 변환될 경우, 신소재공학과 일반학생전형에 합격할 수 있을지 확신하기는 어렵습니다. 이유는 다음과 같습니다:
+1. **학교별 차이**: 각 대학의 전형 기준은 다르므로, 동의대학교의 신소재공학과 일반학생전형의 최저 등급 기준을 정확히 알아야 합니다.
+2. **등급 변환 규칙**: 동의대학교의 등급 변환 규칙에 따라 4.3이 4.1~4.2로 변환될 경우, 해당 학교에서 요구하는 최소 등급을 충족할 수 있을지 확인해야 합니다.
+3. **전형 경쟁률**: 신소재공학과의 일반학생전형 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 4.1~4.2로 변환된 성적만으로 합격하기는 어렵습니다.
+4. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등 다른 평가 요소도 고려하므로, 이 부분을 잘 준비하는 것이 중요합니다.
+위와 같은 이유로, 정확한 답변을 위해서는 동의대학교 신소재공학과 일반학생전형의 최저 등급 기준 및 경쟁률 등을 확인해야 합니다. 이를 위해 공식 홈페이지나 입학처에 문의하시는 것을 추천드립니다. 더 자세한 정보를 얻으시려면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 기준을 제시하고 있으나, 제공된 원본 텍스트의 구체적인 성적 데이터와는 일치하지 않습니다. 원본 텍스트에서 제공된 평균 점수와 표준 편차 등의 정보는 누락되어 있으며, 제시된 성적 기준이 사실과 다를 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 원본 텍스트에서 제공된 평균 점수와 성적 기준이 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 성적 기준에 대한 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 데이터와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 성적 기준이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답에서 제시된 성적 기준은 원본 텍스트의 구체적인 데이터와 일치하지 않으며, 이는 정확성을 저해합니다. 원본 텍스트의 평균 점수와 표준 편차 등의 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 정확성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 정보를 제공하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 성적 기준이 명확하게 제시되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8086867124117604</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형에 지원하려면, 해당 학과가 모집하는 수능 영역별 표준점수를 충족해야 합니다. 현재 제공된 정보로는 동의대학교 인공지능학과의 정확한 모집인원 및 수능 반영 비율은 명시되어 있지 않으므로, 일반적으로 인공지능학과에 지원하기 위해서는 다음과 같은 성적을 갖추어야 합니다:
+1. **국어**: 104 이상
+2. **수학(미적분 또는 기하)**: 108 이상 (가산점 포함)
+3. **영어**: 139 이상 (1등급)
+이러한 성적이 기본적인 요구사항이며, 실제 모집인원과 경쟁률에 따라 더 높은 점수를 보유하고 있어야 할 수도 있습니다. 동의대학교 입학 홈페이지나 공지사항을 확인하여 최신 정보와 정확한 수능 반영 비율을 확인하시기 바랍니다.
+또한, 동의대학교의 경우 특정 학과에서 가산점이 부여되는 경우도 있으므로, 해당 학과의 특성에 맞는 성적을 갖추시는 것이 좋습니다. 자세한 정보는 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 충원 합격 가능성을 판단하기 위해 경쟁률을 고려해야 한다고 언급하고 있지만, 제공된 데이터와는 다르게 경쟁률에 대한 정보가 포함되어 있습니다. 원본 텍스트에서 제공된 학과별 평균 성적과 표준 편차에 대한 정보는 무시되고, 경쟁률에 대한 정보가 추가되었습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하는 결과를 초래합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 성적 기준으로 충원 합격 가능성을 판단하는 데 필요한 정보를 제공하고 있지만, 생성된 응답은 경쟁률에 초점을 맞추고 있어 원본의 주제와 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 관련된 내용을 다루고 있지만, 주제의 초점이 다릅니다. 원본 텍스트는 성적에 기반한 충원 합격 가능성을 다루고 있는 반면, 생성된 응답은 경쟁률에 대한 정보를 제공하고 있어 관련성은 있으나 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 불필요한 반복이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 전체적인 논리적 흐름이 부족합니다. 경쟁률에 대한 정보가 원본 텍스트의 성적 기준과 연결되지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다. 이는 정확성에 부정적인 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제가 다르기 때문에 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제의 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.715837752014944</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 해당 단과대학 및 모집단위의 경쟁률과 지원 인원 등을 고려해야 합니다.
+주어진 데이터를 바탕으로, 동의대학교 의료보건생활대학의 각 학과별로 경쟁률을 확인해 보겠습니다:
+1. **간호학과**
+   - 모집인원: 22
+   - 지원인원: 145
+   - 경쟁률: 6.59
+2. **임상병리학과**
+   - 모집인원: 5
+   - 지원인원: 24
+   - 경쟁률: 4.80
+3. **치위생학과**
+   - 모집인원: 4
+   - 지원인원: 22
+   - 경쟁률: 5.50
+4. **방사선학과**
+   - 모집인원: 5
+   - 지원인원: 36
+   - 경쟁률: 7.20
+5. **의료경영학과**
+   - 모집인원: 5
+   - 지원인원: 14
+   - 경쟁률: 2.80
+6. **물리치료학과**
+   - 모집인원: 4
+   - 지원인원: 51
+   - 경쟁률: 12.75
+7. **식품영양학과**
+   - 모집인원: 6
+   - 지원인원: 13
+   - 경쟁률: 2.17
+8. **한의예과(수학&lt;미적분/기하&gt;)**
+   - 모집인원: 11
+   - 지원인원: 88
+   - 경쟁률: 8.00
+9. **한의예과(수학&lt;확률과통계&gt;)**
+   - 모집인원: 3
+   - 지원인원: 21
+   - 경쟁률: 7.00
+10. **기계공학과, 로봇자동화공학과, 자동차공학과**
+    - 모집인원: 77
+    - 지원인원: 67
+    - 경쟁률: 0.87
+11. **조선해양공학과**
+    - 모집인원: 12
+    - 지원인원: 10
+    - 경쟁률: 0.83
+12. **신소재공학과, 분자나노공학과**
+    - 모집인원: 56
+    - 지원인원: 81
+    - 경쟁률: 1.45
+13. **건축학과(5년제), 건축공학과, 토목공학과, 도시공학과**
+    - 모집인원: 18
+    - 지원인원: 67
+    - 경쟁률: 3.72
+이 중에서 가장 낮은 경쟁률을 가진 학과는 **물리치료학과**로, 경쟁률이 12.75입니다. 이보다 낮은 경쟁률의 학과들은 모두 지원 가능할 것으로 보입니다.
+따라서, 5.27이라는 성적을 가지고는 **간호학과, 임상병리학과, 치위생학과, 방사선학과, 의료경영학과, 한의예과(수학&lt;미적분/기하&gt;), 한의예과(수학&lt;확률과통계&gt;)** 등 대부분의 학과에서 지원 가능할 것으로 예상됩니다.
+하지만, 정확한 추합 가능성은 해당 단과대학 및 모집단위의 최종 경쟁률을 확인해야 합니다. 따라서, "https://ipsi. deu. ac. kr/main. do"를 방문하여 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 성적 4.2가 수능 4개 영역 등급의 평균(5.73)보다 낮다고 언급하고 있지만, 원본 텍스트에서는 정시 성적 4.2가 소프트웨어공학부의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 정시 성적 4.2가 합격 가능성이 높다고 했으나, 생성된 응답에서는 합격 가능성이 매우 낮다고 주장하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보와 경쟁률을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 합격 가능성에 대한 결론이 원본 텍스트와 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 정시 성적 4.2에 대한 해석이 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 낮은 품질을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 해석이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6805311013236385</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 평균 점수와 경쟁률을 고려해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **영어 등급의 평균**: 3.77
+- **수능 4개 영역  (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+당신의 성적은 정시 성적 4.2로, 이는 수능 4개 영역 등급의 평균(5.73)보다 낮습니다. 그러나 동의대학교 소프트웨어공학부의 평균 점수와 경쟁률을 고려하면, 정시 성적 4.2로 합격 가능성은 매우 낮다고 볼 수 있습니다.
+하지만, 이는 단순히 평균 점수를 기준으로 한 추정일 뿐이며, 개인의 특성과 지원자의 다양성을 고려할 때 완전한 확신을 내기 어렵습니다. 따라서, 동의대학교 소프트웨어공학부에 대한 자세한 정보와 최신 경쟁률 등을 확인하시고, 전문가의 조언을 구하는 것이 좋겠습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하지만, 주어진 정보와는 다소 다른 방식으로 접근하고 있습니다. z-score 계산을 포함하고 있지만, 원래의 평균 등급과 관련된 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, z-score 계산을 통해 다른 관점을 제시하고 있어 일관성이 떨어집니다. 원본의 평균 등급과 관련된 정보가 명확히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 일반학생전형에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 주요 포인트를 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 z-score 계산을 포함하고 있지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 연결이 약해져 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6456853964299912</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 표준 변환 점수를 가지고 화학환경공학부의 일반 학생 전형에 지원이 가능한지 판단해보겠습니다.
+주어진 정보에서, 화학환경공학부의 일반학생전형에 대한 평균 및 표준 편차는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 6.87
+주어진 표준 변환 점수를 평균과 표준 편차로 변환하면 다음과 같습니다:
+- z-score = (392 - 353.48) / 6.87 ≈ 0.56
+z-score가 0.56일 때, 해당 점수는 평균보다 약간 높은 위치에 있습니다. 대체로 z-score가 0.5 이상이면 상대적으로 좋은 성적을 보여주고, 일반 학생 전형에 지원 가능성이 높습니다.
+따라서, 3.92라는 표준 변환 점수를 가지고 화학환경공학부의 일반학생전형에 지원하는 것은 가능할 것으로 판단됩니다. 하지만 최종 결정은 입시 관련 웹사이트나 대학 측에서 확인하시는 것이 가장 정확합니다.
+만약 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 제공된 데이터에 대한 정확한 판단을 내리지 못하고 있으며, 여러 가지 추가적인 요소를 언급하고 있지만, 원본 텍스트에서 제시된 합격 가능성에 대한 명확한 정보를 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 결론과 상반된 내용을 포함하고 있습니다. 원본 텍스트는 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답은 그 가능성을 부정하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 결론을 무시하고 추가적인 정보를 제공함으로써 다소 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있지만, 이들 간의 논리적 연결이 다소 약해 보입니다. 각 요소가 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 합격 가능성에 대한 명확한 판단을 제공하지 않고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트의 핵심 정보를 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 결론적으로는 원본 텍스트의 주제를 벗어나고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.5754774746530823</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 이유는 다음과 같습니다:
+1. **모집단위별 경쟁률과 지원 인원**: 각 모집단위별로 다른 경쟁률이 있으며, 지원 인원도 다릅니다. 제공된 데이터에는 특정 모집단위의 경쟁률과 지원 인원 정보가 포함되어 있지 않습니다.
+2. **학업역량 평가**: 면접평가에서 학업역량을 평가받습니다. 이는 지원자의 문제해결 능력, 전공적합성 등을 평가하는 부분입니다. 제공된 데이터에는 이에 대한 정보가 없습니다.
+3. **전공적합성 평가**: 지원자가 지원한 전공과 관련된 활동이나 경험을 평가합니다. 제공된 데이터에는 특정 지원자의 전공적합성 평가 결과가 포함되어 있지 않습니다.
+4. **기타 요인**: 학생부종합평가, 면접평가 등 다양한 평가 요인이 있습니다. 제공된 데이터는 수능 점수와 경쟁률에만 집중하고 있어, 다른 평가 요인을 고려하지 못합니다.
+**추천 사항:**
+- **대입 컨설팅 서비스 활용**: 대입 컨설팅 서비스를 통해 전문가의 조언을 받으세요. 이는 지원자의 개인적 상황과 학업역량 등을 종합적으로 고려하여 합격 가능성 평가를 도와줄 수 있습니다.
+- **대학 입학 홈페이지 확인**: 동의대학교의 입학 홈페이지에서 더 자세한 정보를 찾아보세요. 대입 컨설팅 센터나 입학사정관과 상담을 진행해 보는 것도 좋은 방법입니다.
+**참고 링크:**
+https://ipsi. deu. ac. kr/main. do
+이 링크를 통해 동의대학교의 입학 정보와 지원 절차 등을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 영화학과의 합격 가능성에 대한 여러 요소를 고려하고 있지만, 원본 텍스트에서 제공된 평균 성적과 비교했을 때, 성적이 4.2인 경우 합격 가능성이 존재한다고 명시한 부분이 다소 모호하게 해석되고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 판단이 다소 상충되는 요소를 포함하고 있습니다. 예를 들어, 성적이 낮을 수 있다고 언급하면서도 합격 가능성이 존재한다고 한 부분에서 일관성이 부족합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 영화학과의 합격 가능성에 대한 질문에 대해 여러 요소를 고려하여 답변하고 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보에 대한 언급이 부족하여 약간의 관련성이 떨어집니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있어 약간의 일관성이 떨어질 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 성적에 대한 해석이 다소 주관적이며, 정확한 수치와 비교가 부족합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 내용이 다소 불필요하게 길어질 수 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.650166620327146</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집 전형에 대한 정보만을 바탕으로 답변드리겠습니다.
+현재 제공된 정보로는 영화학과에 대한 특별한 변경사항이나 모집인원, 전형요소 반영비율 등이 명시되어 있지 않습니다. 따라서 일반적으로 합격 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형요소 반영 비율**: 영화학과의 경우 수능 성적이 주요 평가 기준일 가능성이 높습니다. 제공된 정보에서 가군 수능(일반학생전형)의 전형요소 반영비율은 100%로, 실기/실적은 반영되지 않는 것으로 보입니다.
+2. **모집인원**: 영화학과에 대한 모집인원이 명시되어 있지 않아 정확한 판단을 하기 어렵습니다. 일반적으로 모집인원이 많다면 경쟁률이 높아지므로, 성적이 4.2정도라면 합격 가능성은 낮을 수 있습니다.
+3. **전형요소**: 영화학과의 경우 실기나 면접 등 전형요소가 반영될 수도 있으니, 해당 요소에 대한 준비를 해두시는 것이 좋습니다.
+4. **성적 평균**: 현재 제공된 정보에서 성적이 4.2정도라면, 이 성적은 일반적인 수준보다 낮은 편입니다. 따라서 합격 가능성은 낮을 것으로 예상됩니다.
+하지만 정확한 판단을 위해서는 영화학과의 모집요강이나 전형요소 반영비율 등을 확인하시고, 입학처에 직접 문의하시는 것이 가장 좋습니다. 또한, 학교 홈페이지나 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있으며, 원본 텍스트의 내용을 대부분 반영하고 있습니다. 그러나 "기타 질의응답" 부분에서 "질의응답"이 "질의응답(제출서류 진위 여부 등)"으로 명확히 언급되지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일치하지만, "기타 질의응답" 부분에서 약간의 차이가 있어 일관성이 떨어집니다. 또한, 중국어 문장이 포함되어 있어 일관성을 해치는 요소가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 중국어 문장이 포함되어 있어 한국어 문맥에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으나, 중국어 문장이 포함되어 있어 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 내용을 잘 반영하고 있으나, 일부 세부사항에서 정확성이 떨어지는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 좋은 품질을 보이지만, 중국어 문장과 일부 세부사항의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 중국어 문장이 포함되어 있어 문맥에 맞지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 중국어 문장이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8071115853584281</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응答
+请注意，上述回答是根据提供的信息翻译的，并非实际的中文回答。正确的韩语回答应该是：
+면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르면 면접을 진행할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
